--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C2" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E2" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="F2" t="n">
-        <v>5250</v>
+        <v>16224</v>
       </c>
       <c r="G2" t="n">
-        <v>2.623333333333335</v>
+        <v>1388520.086705306</v>
       </c>
       <c r="H2" t="n">
-        <v>2.552333333333335</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F3" t="n">
-        <v>750</v>
+        <v>102488.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>2.618000000000002</v>
+        <v>1388520.086705306</v>
       </c>
       <c r="H3" t="n">
-        <v>2.554500000000002</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.55</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C4" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D4" t="n">
         <v>2.59</v>
       </c>
       <c r="E4" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F4" t="n">
-        <v>218.3263</v>
+        <v>231526.3202</v>
       </c>
       <c r="G4" t="n">
-        <v>2.612000000000002</v>
+        <v>1620046.406905306</v>
       </c>
       <c r="H4" t="n">
-        <v>2.556166666666668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +548,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C5" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="D5" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E5" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="F5" t="n">
-        <v>76857.4822</v>
+        <v>418665.1082</v>
       </c>
       <c r="G5" t="n">
-        <v>2.600000000000002</v>
+        <v>2038711.515105306</v>
       </c>
       <c r="H5" t="n">
-        <v>2.557333333333335</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +589,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.57</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F6" t="n">
-        <v>385228.9196</v>
+        <v>272222.0261</v>
       </c>
       <c r="G6" t="n">
-        <v>2.596000000000002</v>
+        <v>1766489.489005306</v>
       </c>
       <c r="H6" t="n">
-        <v>2.559000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,33 +627,30 @@
         <v>2.58</v>
       </c>
       <c r="C7" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D7" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="E7" t="n">
         <v>2.58</v>
       </c>
       <c r="F7" t="n">
-        <v>331892.5663</v>
+        <v>9774</v>
       </c>
       <c r="G7" t="n">
-        <v>2.594666666666668</v>
+        <v>1766489.489005306</v>
       </c>
       <c r="H7" t="n">
-        <v>2.561333333333335</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +659,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="C8" t="n">
         <v>2.59</v>
       </c>
       <c r="D8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E8" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F8" t="n">
-        <v>79939.61199999999</v>
+        <v>1808883.2368</v>
       </c>
       <c r="G8" t="n">
-        <v>2.592000000000001</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H8" t="n">
-        <v>2.563333333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,33 +697,30 @@
         <v>2.59</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D9" t="n">
         <v>2.6</v>
       </c>
       <c r="E9" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F9" t="n">
-        <v>225466.3122</v>
+        <v>2278505.6759</v>
       </c>
       <c r="G9" t="n">
-        <v>2.590000000000001</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H9" t="n">
-        <v>2.565333333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +729,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="C10" t="n">
         <v>2.59</v>
       </c>
       <c r="D10" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E10" t="n">
         <v>2.59</v>
       </c>
       <c r="F10" t="n">
-        <v>163591.0739</v>
+        <v>214380.3238</v>
       </c>
       <c r="G10" t="n">
-        <v>2.589333333333334</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H10" t="n">
-        <v>2.567166666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C11" t="n">
         <v>2.62</v>
@@ -789,27 +773,24 @@
         <v>2.62</v>
       </c>
       <c r="E11" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F11" t="n">
-        <v>96166.079</v>
+        <v>35243</v>
       </c>
       <c r="G11" t="n">
-        <v>2.590666666666667</v>
+        <v>3610615.725805306</v>
       </c>
       <c r="H11" t="n">
-        <v>2.569333333333335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +799,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C12" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="D12" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="E12" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F12" t="n">
-        <v>93774.0168</v>
+        <v>828745.9765</v>
       </c>
       <c r="G12" t="n">
-        <v>2.591333333333333</v>
+        <v>4439361.702305307</v>
       </c>
       <c r="H12" t="n">
-        <v>2.571333333333335</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +834,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="C13" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="D13" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F13" t="n">
-        <v>111772.8938</v>
+        <v>2373453.5354</v>
       </c>
       <c r="G13" t="n">
-        <v>2.594000000000001</v>
+        <v>6812815.237705307</v>
       </c>
       <c r="H13" t="n">
-        <v>2.573166666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +869,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="C14" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D14" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E14" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F14" t="n">
-        <v>607367.6675</v>
+        <v>1705340.9729</v>
       </c>
       <c r="G14" t="n">
-        <v>2.596666666666667</v>
+        <v>6812815.237705307</v>
       </c>
       <c r="H14" t="n">
-        <v>2.575833333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +904,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C15" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="D15" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="E15" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="F15" t="n">
-        <v>488870.0319</v>
+        <v>2088533.2336</v>
       </c>
       <c r="G15" t="n">
-        <v>2.600000000000001</v>
+        <v>8901348.471305307</v>
       </c>
       <c r="H15" t="n">
-        <v>2.578500000000001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +939,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="C16" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="D16" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="E16" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="F16" t="n">
-        <v>91100</v>
+        <v>35457.3858</v>
       </c>
       <c r="G16" t="n">
-        <v>2.602666666666668</v>
+        <v>8865891.085505307</v>
       </c>
       <c r="H16" t="n">
-        <v>2.581000000000002</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +974,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="C17" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="D17" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="E17" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="F17" t="n">
-        <v>46400.2119</v>
+        <v>701432.4857</v>
       </c>
       <c r="G17" t="n">
-        <v>2.601333333333335</v>
+        <v>8164458.599805307</v>
       </c>
       <c r="H17" t="n">
-        <v>2.582500000000002</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1009,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C18" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="D18" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E18" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="F18" t="n">
-        <v>32250</v>
+        <v>144179.8816</v>
       </c>
       <c r="G18" t="n">
-        <v>2.603333333333335</v>
+        <v>8164458.599805307</v>
       </c>
       <c r="H18" t="n">
-        <v>2.585000000000002</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1044,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="C19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="D19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="E19" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="F19" t="n">
-        <v>247624</v>
+        <v>1215901.5304</v>
       </c>
       <c r="G19" t="n">
-        <v>2.609333333333335</v>
+        <v>9380360.130205307</v>
       </c>
       <c r="H19" t="n">
-        <v>2.588500000000002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1079,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="C20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="D20" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="E20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F20" t="n">
-        <v>71918</v>
+        <v>2019151.6425</v>
       </c>
       <c r="G20" t="n">
-        <v>2.613333333333336</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H20" t="n">
-        <v>2.590666666666669</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1114,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C21" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="D21" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E21" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F21" t="n">
-        <v>70036</v>
+        <v>2954859.3624</v>
       </c>
       <c r="G21" t="n">
-        <v>2.616666666666668</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H21" t="n">
-        <v>2.593000000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1149,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="C22" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D22" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E22" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F22" t="n">
-        <v>178788</v>
+        <v>633423.3605</v>
       </c>
       <c r="G22" t="n">
-        <v>2.619333333333335</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H22" t="n">
-        <v>2.596000000000002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,24 +1196,21 @@
         <v>2.63</v>
       </c>
       <c r="F23" t="n">
-        <v>78544.6283</v>
+        <v>25091.2052</v>
       </c>
       <c r="G23" t="n">
-        <v>2.622000000000002</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H23" t="n">
-        <v>2.598500000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1219,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="C24" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="E24" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="F24" t="n">
-        <v>103225.6283</v>
+        <v>432263.5008</v>
       </c>
       <c r="G24" t="n">
-        <v>2.626000000000002</v>
+        <v>6928944.986905308</v>
       </c>
       <c r="H24" t="n">
-        <v>2.601500000000002</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1254,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="C25" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="E25" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F25" t="n">
-        <v>327552</v>
+        <v>264458.3327</v>
       </c>
       <c r="G25" t="n">
-        <v>2.631333333333335</v>
+        <v>6928944.986905308</v>
       </c>
       <c r="H25" t="n">
-        <v>2.604666666666669</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1289,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C26" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="D26" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="E26" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="F26" t="n">
-        <v>7160</v>
+        <v>383113.6927</v>
       </c>
       <c r="G26" t="n">
-        <v>2.635333333333335</v>
+        <v>6545831.294205308</v>
       </c>
       <c r="H26" t="n">
-        <v>2.608000000000003</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1324,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="C27" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="D27" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="E27" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F27" t="n">
-        <v>7004</v>
+        <v>538818.6654000001</v>
       </c>
       <c r="G27" t="n">
-        <v>2.637333333333336</v>
+        <v>6545831.294205308</v>
       </c>
       <c r="H27" t="n">
-        <v>2.610500000000003</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1359,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="C28" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D28" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="E28" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F28" t="n">
-        <v>268</v>
+        <v>60000</v>
       </c>
       <c r="G28" t="n">
-        <v>2.640000000000002</v>
+        <v>6605831.294205308</v>
       </c>
       <c r="H28" t="n">
-        <v>2.613500000000002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1394,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C29" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="D29" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E29" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="F29" t="n">
-        <v>132840</v>
+        <v>2934774.2339</v>
       </c>
       <c r="G29" t="n">
-        <v>2.643333333333335</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H29" t="n">
-        <v>2.616833333333335</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1429,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="C30" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="D30" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="E30" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="F30" t="n">
-        <v>80000</v>
+        <v>68946.6029</v>
       </c>
       <c r="G30" t="n">
-        <v>2.646666666666668</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H30" t="n">
-        <v>2.620000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1464,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="C31" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="D31" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="E31" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="F31" t="n">
-        <v>154800</v>
+        <v>5250</v>
       </c>
       <c r="G31" t="n">
-        <v>2.651333333333335</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H31" t="n">
-        <v>2.623166666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1499,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C32" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="D32" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="E32" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="F32" t="n">
-        <v>65366.5604</v>
+        <v>750</v>
       </c>
       <c r="G32" t="n">
-        <v>2.658666666666668</v>
+        <v>3671807.060305308</v>
       </c>
       <c r="H32" t="n">
-        <v>2.625333333333336</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1534,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="C33" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="D33" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="E33" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="F33" t="n">
-        <v>96845.65150000001</v>
+        <v>218.3263</v>
       </c>
       <c r="G33" t="n">
-        <v>2.660666666666668</v>
+        <v>3671588.734005308</v>
       </c>
       <c r="H33" t="n">
-        <v>2.627166666666668</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1569,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="C34" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="D34" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="E34" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="F34" t="n">
-        <v>7523</v>
+        <v>76857.4822</v>
       </c>
       <c r="G34" t="n">
-        <v>2.658000000000001</v>
+        <v>3594731.251805308</v>
       </c>
       <c r="H34" t="n">
-        <v>2.628666666666668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1604,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="C35" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="D35" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="E35" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="F35" t="n">
-        <v>14810</v>
+        <v>385228.9196</v>
       </c>
       <c r="G35" t="n">
-        <v>2.660666666666668</v>
+        <v>3979960.171405308</v>
       </c>
       <c r="H35" t="n">
-        <v>2.629666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1639,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C36" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D36" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E36" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="F36" t="n">
-        <v>26467.6087</v>
+        <v>331892.5663</v>
       </c>
       <c r="G36" t="n">
-        <v>2.662000000000001</v>
+        <v>4311852.737705308</v>
       </c>
       <c r="H36" t="n">
-        <v>2.630500000000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1674,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="C37" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="D37" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="E37" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F37" t="n">
-        <v>136786</v>
+        <v>79939.61199999999</v>
       </c>
       <c r="G37" t="n">
-        <v>2.661333333333335</v>
+        <v>4231913.125705308</v>
       </c>
       <c r="H37" t="n">
-        <v>2.6315</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1709,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="C38" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E38" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="F38" t="n">
-        <v>1840869</v>
+        <v>225466.3122</v>
       </c>
       <c r="G38" t="n">
-        <v>2.661333333333335</v>
+        <v>4457379.437905308</v>
       </c>
       <c r="H38" t="n">
-        <v>2.632333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1744,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="C39" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="D39" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E39" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="F39" t="n">
-        <v>367605.1311</v>
+        <v>163591.0739</v>
       </c>
       <c r="G39" t="n">
-        <v>2.660000000000001</v>
+        <v>4293788.364005308</v>
       </c>
       <c r="H39" t="n">
-        <v>2.633166666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1779,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C40" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D40" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E40" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="F40" t="n">
-        <v>99312.39200000001</v>
+        <v>96166.079</v>
       </c>
       <c r="G40" t="n">
-        <v>2.656000000000001</v>
+        <v>4389954.443005308</v>
       </c>
       <c r="H40" t="n">
-        <v>2.6335</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1814,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C41" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="D41" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="E41" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="F41" t="n">
-        <v>386683.8637</v>
+        <v>93774.0168</v>
       </c>
       <c r="G41" t="n">
-        <v>2.652000000000001</v>
+        <v>4296180.426205307</v>
       </c>
       <c r="H41" t="n">
-        <v>2.634</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1849,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C42" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D42" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E42" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F42" t="n">
-        <v>7562</v>
+        <v>111772.8938</v>
       </c>
       <c r="G42" t="n">
-        <v>2.653333333333334</v>
+        <v>4407953.320005307</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6345</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1884,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F43" t="n">
-        <v>89719.71030000001</v>
+        <v>607367.6675</v>
       </c>
       <c r="G43" t="n">
-        <v>2.652666666666667</v>
+        <v>5015320.987505307</v>
       </c>
       <c r="H43" t="n">
-        <v>2.6345</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1919,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="C44" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="D44" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="E44" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F44" t="n">
-        <v>37960</v>
+        <v>488870.0319</v>
       </c>
       <c r="G44" t="n">
-        <v>2.651333333333334</v>
+        <v>5015320.987505307</v>
       </c>
       <c r="H44" t="n">
-        <v>2.634166666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1954,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C45" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D45" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E45" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="F45" t="n">
-        <v>3996.831</v>
+        <v>91100</v>
       </c>
       <c r="G45" t="n">
-        <v>2.650666666666667</v>
+        <v>4924220.987505307</v>
       </c>
       <c r="H45" t="n">
-        <v>2.634</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1989,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C46" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="D46" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E46" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="F46" t="n">
-        <v>48578</v>
+        <v>46400.2119</v>
       </c>
       <c r="G46" t="n">
-        <v>2.649333333333334</v>
+        <v>4877820.775605307</v>
       </c>
       <c r="H46" t="n">
-        <v>2.633333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2024,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="C47" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D47" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E47" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="F47" t="n">
-        <v>51422</v>
+        <v>32250</v>
       </c>
       <c r="G47" t="n">
-        <v>2.649333333333334</v>
+        <v>4910070.775605307</v>
       </c>
       <c r="H47" t="n">
-        <v>2.633166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2059,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="C48" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="D48" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="E48" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="F48" t="n">
-        <v>15904.9999</v>
+        <v>247624</v>
       </c>
       <c r="G48" t="n">
-        <v>2.650000000000001</v>
+        <v>5157694.775605307</v>
       </c>
       <c r="H48" t="n">
-        <v>2.633</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2094,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C49" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D49" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="E49" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F49" t="n">
-        <v>23075.0001</v>
+        <v>71918</v>
       </c>
       <c r="G49" t="n">
-        <v>2.652000000000001</v>
+        <v>5085776.775605307</v>
       </c>
       <c r="H49" t="n">
-        <v>2.632833333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2129,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="C50" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="D50" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="E50" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="F50" t="n">
-        <v>18980</v>
+        <v>70036</v>
       </c>
       <c r="G50" t="n">
-        <v>2.654000000000001</v>
+        <v>5155812.775605307</v>
       </c>
       <c r="H50" t="n">
-        <v>2.631999999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2164,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C51" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="D51" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="E51" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="F51" t="n">
-        <v>517454.2236</v>
+        <v>178788</v>
       </c>
       <c r="G51" t="n">
-        <v>2.656666666666668</v>
+        <v>5334600.775605307</v>
       </c>
       <c r="H51" t="n">
-        <v>2.632833333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2199,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="C52" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D52" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="E52" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F52" t="n">
-        <v>112327.4072</v>
+        <v>78544.6283</v>
       </c>
       <c r="G52" t="n">
-        <v>2.657333333333334</v>
+        <v>5256056.147305307</v>
       </c>
       <c r="H52" t="n">
-        <v>2.633166666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2234,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="C53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="D53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="E53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="F53" t="n">
-        <v>668722.5672</v>
+        <v>103225.6283</v>
       </c>
       <c r="G53" t="n">
-        <v>2.658000000000001</v>
+        <v>5359281.775605307</v>
       </c>
       <c r="H53" t="n">
-        <v>2.633333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2269,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C54" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D54" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E54" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F54" t="n">
-        <v>19072.5758</v>
+        <v>327552</v>
       </c>
       <c r="G54" t="n">
-        <v>2.658000000000001</v>
+        <v>5686833.775605307</v>
       </c>
       <c r="H54" t="n">
-        <v>2.633499999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2304,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C55" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="D55" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E55" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="F55" t="n">
-        <v>209123.5863</v>
+        <v>7160</v>
       </c>
       <c r="G55" t="n">
-        <v>2.659333333333334</v>
+        <v>5693993.775605307</v>
       </c>
       <c r="H55" t="n">
-        <v>2.633999999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="C56" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="D56" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="E56" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F56" t="n">
-        <v>2160.3872</v>
+        <v>7004</v>
       </c>
       <c r="G56" t="n">
-        <v>2.660666666666668</v>
+        <v>5686989.775605307</v>
       </c>
       <c r="H56" t="n">
-        <v>2.634666666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="C57" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="D57" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="E57" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="F57" t="n">
-        <v>74903.50900000001</v>
+        <v>268</v>
       </c>
       <c r="G57" t="n">
-        <v>2.661333333333335</v>
+        <v>5687257.775605307</v>
       </c>
       <c r="H57" t="n">
-        <v>2.635833333333332</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C58" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D58" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E58" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="F58" t="n">
-        <v>84032.57030000001</v>
+        <v>132840</v>
       </c>
       <c r="G58" t="n">
-        <v>2.660000000000001</v>
+        <v>5820097.775605307</v>
       </c>
       <c r="H58" t="n">
-        <v>2.636666666666665</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2444,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="C59" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D59" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E59" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F59" t="n">
-        <v>10586.7021</v>
+        <v>80000</v>
       </c>
       <c r="G59" t="n">
-        <v>2.658000000000001</v>
+        <v>5820097.775605307</v>
       </c>
       <c r="H59" t="n">
-        <v>2.637333333333332</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2479,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="C60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="E60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="F60" t="n">
-        <v>2777767.8589</v>
+        <v>154800</v>
       </c>
       <c r="G60" t="n">
-        <v>2.654666666666668</v>
+        <v>5974897.775605307</v>
       </c>
       <c r="H60" t="n">
-        <v>2.637999999999999</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2514,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C61" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="D61" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="E61" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="F61" t="n">
-        <v>2459.1831</v>
+        <v>65366.5604</v>
       </c>
       <c r="G61" t="n">
-        <v>2.652000000000001</v>
+        <v>5909531.215205307</v>
       </c>
       <c r="H61" t="n">
-        <v>2.638833333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2549,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C62" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="D62" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E62" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F62" t="n">
-        <v>143517</v>
+        <v>96845.65150000001</v>
       </c>
       <c r="G62" t="n">
-        <v>2.648666666666669</v>
+        <v>5812685.563705307</v>
       </c>
       <c r="H62" t="n">
-        <v>2.639499999999998</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2584,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C63" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D63" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E63" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F63" t="n">
-        <v>150000</v>
+        <v>7523</v>
       </c>
       <c r="G63" t="n">
-        <v>2.646000000000002</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H63" t="n">
-        <v>2.639999999999998</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2619,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C64" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D64" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E64" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F64" t="n">
-        <v>126956.8917</v>
+        <v>14810</v>
       </c>
       <c r="G64" t="n">
-        <v>2.643333333333335</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H64" t="n">
-        <v>2.640666666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2654,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="D65" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="F65" t="n">
-        <v>113893</v>
+        <v>26467.6087</v>
       </c>
       <c r="G65" t="n">
-        <v>2.640000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H65" t="n">
-        <v>2.641999999999998</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2689,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C66" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="D66" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="E66" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="F66" t="n">
-        <v>587032.153</v>
+        <v>136786</v>
       </c>
       <c r="G66" t="n">
-        <v>2.636000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H66" t="n">
-        <v>2.642833333333332</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2724,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C67" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="D67" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="E67" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F67" t="n">
-        <v>384.6154</v>
+        <v>1840869</v>
       </c>
       <c r="G67" t="n">
-        <v>2.632666666666668</v>
+        <v>3964293.563705307</v>
       </c>
       <c r="H67" t="n">
-        <v>2.642666666666665</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2759,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C68" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D68" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E68" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>367605.1311</v>
       </c>
       <c r="G68" t="n">
-        <v>2.634000000000001</v>
+        <v>4331898.694805307</v>
       </c>
       <c r="H68" t="n">
-        <v>2.643833333333331</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2794,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="C69" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="D69" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="E69" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F69" t="n">
-        <v>716</v>
+        <v>99312.39200000001</v>
       </c>
       <c r="G69" t="n">
-        <v>2.631333333333335</v>
+        <v>4232586.302805307</v>
       </c>
       <c r="H69" t="n">
-        <v>2.643833333333331</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2829,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="C70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="D70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="E70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F70" t="n">
-        <v>5169.7676</v>
+        <v>386683.8637</v>
       </c>
       <c r="G70" t="n">
-        <v>2.629333333333335</v>
+        <v>4619270.166505307</v>
       </c>
       <c r="H70" t="n">
-        <v>2.643999999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C71" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="D71" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="E71" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F71" t="n">
-        <v>650442.2793000001</v>
+        <v>7562</v>
       </c>
       <c r="G71" t="n">
-        <v>2.626000000000001</v>
+        <v>4626832.166505307</v>
       </c>
       <c r="H71" t="n">
-        <v>2.643499999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="C72" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="D72" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="E72" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="F72" t="n">
-        <v>204.3829</v>
+        <v>89719.71030000001</v>
       </c>
       <c r="G72" t="n">
-        <v>2.620666666666668</v>
+        <v>4716551.876805307</v>
       </c>
       <c r="H72" t="n">
-        <v>2.643166666666665</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="C73" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D73" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="E73" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F73" t="n">
-        <v>179403.8406</v>
+        <v>37960</v>
       </c>
       <c r="G73" t="n">
-        <v>2.615333333333334</v>
+        <v>4754511.876805307</v>
       </c>
       <c r="H73" t="n">
-        <v>2.641999999999998</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2969,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="C74" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="D74" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="E74" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="F74" t="n">
-        <v>333</v>
+        <v>3996.831</v>
       </c>
       <c r="G74" t="n">
-        <v>2.612000000000001</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H74" t="n">
-        <v>2.641166666666665</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="C75" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="D75" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="E75" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="F75" t="n">
-        <v>51800.2019</v>
+        <v>48578</v>
       </c>
       <c r="G75" t="n">
-        <v>2.607333333333335</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H75" t="n">
-        <v>2.639833333333332</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3039,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C76" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="D76" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E76" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="F76" t="n">
-        <v>20000</v>
+        <v>51422</v>
       </c>
       <c r="G76" t="n">
-        <v>2.606000000000001</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H76" t="n">
-        <v>2.639666666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3074,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="C77" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="D77" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="E77" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>15904.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>2.604000000000001</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H77" t="n">
-        <v>2.640166666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3109,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="C78" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D78" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="E78" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F78" t="n">
-        <v>79338.3214</v>
+        <v>23075.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>2.599333333333334</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H78" t="n">
-        <v>2.638999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3144,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="C79" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D79" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="E79" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F79" t="n">
-        <v>13370</v>
+        <v>18980</v>
       </c>
       <c r="G79" t="n">
-        <v>2.594666666666668</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H79" t="n">
-        <v>2.636999999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3179,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="C80" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="D80" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="E80" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="F80" t="n">
-        <v>18759.6901</v>
+        <v>517454.2236</v>
       </c>
       <c r="G80" t="n">
-        <v>2.592000000000001</v>
+        <v>5260057.931505308</v>
       </c>
       <c r="H80" t="n">
-        <v>2.636666666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,40 +3214,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="C81" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="D81" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="E81" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>112327.4072</v>
       </c>
       <c r="G81" t="n">
-        <v>2.589333333333335</v>
+        <v>5147730.524305307</v>
       </c>
       <c r="H81" t="n">
-        <v>2.636</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,1082 +3249,1895 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F82" t="n">
+        <v>668722.5672</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4479007.957105307</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F83" t="n">
+        <v>19072.5758</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4479007.957105307</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F84" t="n">
+        <v>209123.5863</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4269884.370805307</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2160.3872</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4272044.758005307</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F86" t="n">
+        <v>74903.50900000001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4346948.267005307</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F87" t="n">
+        <v>84032.57030000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4262915.696705307</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10586.7021</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4262915.696705307</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2777767.8589</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1485147.837805307</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2459.1831</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1487607.020905307</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F91" t="n">
+        <v>143517</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1344090.020905307</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F92" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1344090.020905307</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F93" t="n">
+        <v>126956.8917</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1344090.020905307</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F94" t="n">
+        <v>113893</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1230197.020905307</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F95" t="n">
+        <v>587032.153</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1230197.020905307</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>384.6154</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1229812.405505307</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F97" t="n">
+        <v>200</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1230012.405505307</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>716</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1229296.405505307</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5169.7676</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1229296.405505307</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F100" t="n">
+        <v>650442.2793000001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>578854.126205307</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F101" t="n">
+        <v>204.3829</v>
+      </c>
+      <c r="G101" t="n">
+        <v>578649.743305307</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F102" t="n">
+        <v>179403.8406</v>
+      </c>
+      <c r="G102" t="n">
+        <v>399245.902705307</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F103" t="n">
+        <v>333</v>
+      </c>
+      <c r="G103" t="n">
+        <v>399578.902705307</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F104" t="n">
+        <v>51800.2019</v>
+      </c>
+      <c r="G104" t="n">
+        <v>347778.700805307</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>367778.700805307</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>366778.700805307</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F107" t="n">
+        <v>79338.3214</v>
+      </c>
+      <c r="G107" t="n">
+        <v>287440.379405307</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13370</v>
+      </c>
+      <c r="G108" t="n">
+        <v>287440.379405307</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18759.6901</v>
+      </c>
+      <c r="G109" t="n">
+        <v>306200.069505307</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F110" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>306200.069505307</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>2.55</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C111" t="n">
         <v>2.53</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D111" t="n">
         <v>2.55</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E111" t="n">
         <v>2.53</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F111" t="n">
         <v>562279.7679</v>
       </c>
-      <c r="G82" t="n">
-        <v>2.584666666666668</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2.633999999999999</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
+      <c r="G111" t="n">
+        <v>-256079.698394693</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>2.58</v>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="C112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F112" t="n">
+        <v>18156.0528</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-237923.645594693</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12297.9999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-250221.645494693</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F114" t="n">
+        <v>69152.83590000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-250221.645494693</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F115" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-230221.645494693</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>291682.1787</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-521903.8241946929</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>194</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-521709.8241946929</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36052.9982</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-557762.8223946929</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>193</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-557569.8223946929</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18646.3913</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-576216.2136946929</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18640</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-557576.2136946929</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36052.998</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-593629.211694693</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26875.1579</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-566754.053794693</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F124" t="n">
+        <v>226367.269</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-793121.3227946929</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>46140</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-746981.3227946929</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F126" t="n">
+        <v>72269.7882</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-746981.3227946929</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F127" t="n">
+        <v>279823.9369</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F128" t="n">
+        <v>191160.187</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F129" t="n">
+        <v>167485.482</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F83" t="n">
-        <v>18156.0528</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2.579333333333334</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.633166666666666</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M83" t="inlineStr">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F130" t="n">
+        <v>53940.1763</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>2.57</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C131" t="n">
         <v>2.57</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D131" t="n">
         <v>2.57</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E131" t="n">
         <v>2.57</v>
       </c>
-      <c r="F84" t="n">
-        <v>12297.9999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2.577333333333334</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2.631666666666666</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M84" t="inlineStr">
+      <c r="F131" t="n">
+        <v>160348.5079</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>2.57</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C132" t="n">
         <v>2.57</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D132" t="n">
         <v>2.57</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E132" t="n">
         <v>2.57</v>
       </c>
-      <c r="F85" t="n">
-        <v>69152.83590000001</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2.575333333333334</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M85" t="inlineStr">
+      <c r="F132" t="n">
+        <v>38910.5058</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F86" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G86" t="n">
-        <v>2.575333333333334</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2.6285</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>2.58</v>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="C133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F133" t="n">
+        <v>246.7165</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-466910.669394693</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F87" t="n">
-        <v>291682.1787</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.574666666666667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2.6275</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
         <v>2.58</v>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="C134" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F134" t="n">
+        <v>77380.7722007722</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-389529.8971939208</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F88" t="n">
-        <v>194</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2.576000000000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2.626</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F89" t="n">
-        <v>36052.9982</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.574666666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.624</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F90" t="n">
-        <v>193</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2.577333333333334</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.6225</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F91" t="n">
-        <v>18646.3913</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.573333333333334</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2.620166666666667</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F92" t="n">
-        <v>18640</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.572000000000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2.6185</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F93" t="n">
-        <v>36052.998</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2.572666666666667</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.617</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F94" t="n">
-        <v>26875.1579</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2.574</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.616000000000001</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F95" t="n">
-        <v>226367.269</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2.571333333333333</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2.614333333333334</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F96" t="n">
-        <v>46140</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2.613000000000001</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F97" t="n">
-        <v>72269.7882</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2.572000000000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2.611666666666668</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F98" t="n">
-        <v>279823.9369</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2.571333333333334</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2.610666666666668</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F99" t="n">
-        <v>191160.187</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2.571333333333334</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.609500000000001</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F100" t="n">
-        <v>167485.482</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2.571333333333334</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2.608833333333334</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F101" t="n">
-        <v>53940.1763</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2.570000000000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2.608000000000001</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F102" t="n">
-        <v>160348.5079</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2.570000000000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2.606666666666667</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F103" t="n">
-        <v>38910.5058</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.569333333333334</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2.605166666666667</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F104" t="n">
-        <v>246.7165</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2.570000000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2.603666666666668</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F105" t="n">
-        <v>77380.7722007722</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2.569333333333334</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2.602166666666668</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,10 +453,10 @@
         <v>16224</v>
       </c>
       <c r="G2" t="n">
-        <v>1388520.086705306</v>
+        <v>2.549999999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,24 +489,21 @@
         <v>102488.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>1388520.086705306</v>
+        <v>2.549999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +525,7 @@
         <v>231526.3202</v>
       </c>
       <c r="G4" t="n">
-        <v>1620046.406905306</v>
+        <v>2.564999999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -531,17 +534,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +561,7 @@
         <v>418665.1082</v>
       </c>
       <c r="G5" t="n">
-        <v>2038711.515105306</v>
+        <v>2.584999999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,17 +570,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +597,7 @@
         <v>272222.0261</v>
       </c>
       <c r="G6" t="n">
-        <v>1766489.489005306</v>
+        <v>2.584999999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,7 +633,7 @@
         <v>9774</v>
       </c>
       <c r="G7" t="n">
-        <v>1766489.489005306</v>
+        <v>2.579999999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,7 +669,7 @@
         <v>1808883.2368</v>
       </c>
       <c r="G8" t="n">
-        <v>3575372.725805306</v>
+        <v>2.584999999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,7 +705,7 @@
         <v>2278505.6759</v>
       </c>
       <c r="G9" t="n">
-        <v>3575372.725805306</v>
+        <v>2.589999999999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,7 +741,7 @@
         <v>214380.3238</v>
       </c>
       <c r="G10" t="n">
-        <v>3575372.725805306</v>
+        <v>2.589999999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -758,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -779,7 +777,7 @@
         <v>35243</v>
       </c>
       <c r="G11" t="n">
-        <v>3610615.725805306</v>
+        <v>2.604999999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -793,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -814,7 +813,7 @@
         <v>828745.9765</v>
       </c>
       <c r="G12" t="n">
-        <v>4439361.702305307</v>
+        <v>2.639999999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -828,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,7 +849,7 @@
         <v>2373453.5354</v>
       </c>
       <c r="G13" t="n">
-        <v>6812815.237705307</v>
+        <v>2.674999999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,7 +885,7 @@
         <v>1705340.9729</v>
       </c>
       <c r="G14" t="n">
-        <v>6812815.237705307</v>
+        <v>2.689999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -919,13 +921,13 @@
         <v>2088533.2336</v>
       </c>
       <c r="G15" t="n">
-        <v>8901348.471305307</v>
+        <v>2.704999999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -933,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -954,13 +957,13 @@
         <v>35457.3858</v>
       </c>
       <c r="G16" t="n">
-        <v>8865891.085505307</v>
+        <v>2.704999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -968,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -989,13 +993,13 @@
         <v>701432.4857</v>
       </c>
       <c r="G17" t="n">
-        <v>8164458.599805307</v>
+        <v>2.684999999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1003,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1024,7 +1029,7 @@
         <v>144179.8816</v>
       </c>
       <c r="G18" t="n">
-        <v>8164458.599805307</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1059,7 +1065,7 @@
         <v>1215901.5304</v>
       </c>
       <c r="G19" t="n">
-        <v>9380360.130205307</v>
+        <v>2.699999999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1094,13 +1101,13 @@
         <v>2019151.6425</v>
       </c>
       <c r="G20" t="n">
-        <v>7361208.487705307</v>
+        <v>2.674999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1108,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,13 +1137,13 @@
         <v>2954859.3624</v>
       </c>
       <c r="G21" t="n">
-        <v>7361208.487705307</v>
+        <v>2.629999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1143,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1164,7 +1173,7 @@
         <v>633423.3605</v>
       </c>
       <c r="G22" t="n">
-        <v>7361208.487705307</v>
+        <v>2.629999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1178,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1199,7 +1209,7 @@
         <v>25091.2052</v>
       </c>
       <c r="G23" t="n">
-        <v>7361208.487705307</v>
+        <v>2.629999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1213,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1234,7 +1245,7 @@
         <v>432263.5008</v>
       </c>
       <c r="G24" t="n">
-        <v>6928944.986905308</v>
+        <v>2.614999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1248,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1269,7 +1281,7 @@
         <v>264458.3327</v>
       </c>
       <c r="G25" t="n">
-        <v>6928944.986905308</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1283,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1304,7 +1317,7 @@
         <v>383113.6927</v>
       </c>
       <c r="G26" t="n">
-        <v>6545831.294205308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1318,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1339,7 +1353,7 @@
         <v>538818.6654000001</v>
       </c>
       <c r="G27" t="n">
-        <v>6545831.294205308</v>
+        <v>2.589999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1353,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1374,7 +1389,7 @@
         <v>60000</v>
       </c>
       <c r="G28" t="n">
-        <v>6605831.294205308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1388,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1409,7 +1425,7 @@
         <v>2934774.2339</v>
       </c>
       <c r="G29" t="n">
-        <v>3671057.060305308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1423,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1444,7 +1461,7 @@
         <v>68946.6029</v>
       </c>
       <c r="G30" t="n">
-        <v>3671057.060305308</v>
+        <v>2.589999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1458,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1479,7 +1497,7 @@
         <v>5250</v>
       </c>
       <c r="G31" t="n">
-        <v>3671057.060305308</v>
+        <v>2.589999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1493,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1514,7 +1533,7 @@
         <v>750</v>
       </c>
       <c r="G32" t="n">
-        <v>3671807.060305308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1528,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1549,7 +1569,7 @@
         <v>218.3263</v>
       </c>
       <c r="G33" t="n">
-        <v>3671588.734005308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1563,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1584,7 +1605,7 @@
         <v>76857.4822</v>
       </c>
       <c r="G34" t="n">
-        <v>3594731.251805308</v>
+        <v>2.564999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1598,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1619,7 +1641,7 @@
         <v>385228.9196</v>
       </c>
       <c r="G35" t="n">
-        <v>3979960.171405308</v>
+        <v>2.554999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1633,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1654,7 +1677,7 @@
         <v>331892.5663</v>
       </c>
       <c r="G36" t="n">
-        <v>4311852.737705308</v>
+        <v>2.589999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1668,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1689,7 +1713,7 @@
         <v>79939.61199999999</v>
       </c>
       <c r="G37" t="n">
-        <v>4231913.125705308</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1703,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1724,7 +1749,7 @@
         <v>225466.3122</v>
       </c>
       <c r="G38" t="n">
-        <v>4457379.437905308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1738,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1759,7 +1785,7 @@
         <v>163591.0739</v>
       </c>
       <c r="G39" t="n">
-        <v>4293788.364005308</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1773,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1794,7 +1821,7 @@
         <v>96166.079</v>
       </c>
       <c r="G40" t="n">
-        <v>4389954.443005308</v>
+        <v>2.604999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1829,7 +1857,7 @@
         <v>93774.0168</v>
       </c>
       <c r="G41" t="n">
-        <v>4296180.426205307</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1864,20 +1893,25 @@
         <v>111772.8938</v>
       </c>
       <c r="G42" t="n">
-        <v>4407953.320005307</v>
+        <v>2.614999999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.6</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1899,7 +1933,7 @@
         <v>607367.6675</v>
       </c>
       <c r="G43" t="n">
-        <v>5015320.987505307</v>
+        <v>2.634999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1908,11 +1942,18 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1934,7 +1975,7 @@
         <v>488870.0319</v>
       </c>
       <c r="G44" t="n">
-        <v>5015320.987505307</v>
+        <v>2.639999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1943,11 +1984,18 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1969,7 +2017,7 @@
         <v>91100</v>
       </c>
       <c r="G45" t="n">
-        <v>4924220.987505307</v>
+        <v>2.634999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1978,11 +2026,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2004,7 +2059,7 @@
         <v>46400.2119</v>
       </c>
       <c r="G46" t="n">
-        <v>4877820.775605307</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2013,11 +2068,18 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2039,7 +2101,7 @@
         <v>32250</v>
       </c>
       <c r="G47" t="n">
-        <v>4910070.775605307</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2048,11 +2110,18 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2074,7 +2143,7 @@
         <v>247624</v>
       </c>
       <c r="G48" t="n">
-        <v>5157694.775605307</v>
+        <v>2.654999999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2083,11 +2152,18 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2109,7 +2185,7 @@
         <v>71918</v>
       </c>
       <c r="G49" t="n">
-        <v>5085776.775605307</v>
+        <v>2.639999999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2118,11 +2194,18 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2144,7 +2227,7 @@
         <v>70036</v>
       </c>
       <c r="G50" t="n">
-        <v>5155812.775605307</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2153,11 +2236,18 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,7 +2269,7 @@
         <v>178788</v>
       </c>
       <c r="G51" t="n">
-        <v>5334600.775605307</v>
+        <v>2.634999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2188,11 +2278,18 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2214,7 +2311,7 @@
         <v>78544.6283</v>
       </c>
       <c r="G52" t="n">
-        <v>5256056.147305307</v>
+        <v>2.639999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2223,11 +2320,18 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2249,7 +2353,7 @@
         <v>103225.6283</v>
       </c>
       <c r="G53" t="n">
-        <v>5359281.775605307</v>
+        <v>2.644999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2258,11 +2362,18 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2284,7 +2395,7 @@
         <v>327552</v>
       </c>
       <c r="G54" t="n">
-        <v>5686833.775605307</v>
+        <v>2.664999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2293,11 +2404,18 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2319,19 +2437,28 @@
         <v>7160</v>
       </c>
       <c r="G55" t="n">
-        <v>5693993.775605307</v>
+        <v>2.674999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>1.025769230769231</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.088</v>
       </c>
     </row>
     <row r="56">
@@ -2354,13 +2481,13 @@
         <v>7004</v>
       </c>
       <c r="G56" t="n">
-        <v>5686989.775605307</v>
+        <v>2.654999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2368,6 +2495,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2389,7 +2517,7 @@
         <v>268</v>
       </c>
       <c r="G57" t="n">
-        <v>5687257.775605307</v>
+        <v>2.649999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2403,6 +2531,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2424,7 +2553,7 @@
         <v>132840</v>
       </c>
       <c r="G58" t="n">
-        <v>5820097.775605307</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,6 +2567,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2459,7 +2589,7 @@
         <v>80000</v>
       </c>
       <c r="G59" t="n">
-        <v>5820097.775605307</v>
+        <v>2.689999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,6 +2603,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2494,7 +2625,7 @@
         <v>154800</v>
       </c>
       <c r="G60" t="n">
-        <v>5974897.775605307</v>
+        <v>2.694999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,6 +2639,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2529,7 +2661,7 @@
         <v>65366.5604</v>
       </c>
       <c r="G61" t="n">
-        <v>5909531.215205307</v>
+        <v>2.69</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,6 +2675,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2564,7 +2697,7 @@
         <v>96845.65150000001</v>
       </c>
       <c r="G62" t="n">
-        <v>5812685.563705307</v>
+        <v>2.669999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,6 +2711,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2599,7 +2733,7 @@
         <v>7523</v>
       </c>
       <c r="G63" t="n">
-        <v>5805162.563705307</v>
+        <v>2.649999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,6 +2747,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2634,7 +2769,7 @@
         <v>14810</v>
       </c>
       <c r="G64" t="n">
-        <v>5805162.563705307</v>
+        <v>2.64</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,6 +2783,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2669,13 +2805,13 @@
         <v>26467.6087</v>
       </c>
       <c r="G65" t="n">
-        <v>5805162.563705307</v>
+        <v>2.64</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2683,6 +2819,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2704,13 +2841,13 @@
         <v>136786</v>
       </c>
       <c r="G66" t="n">
-        <v>5805162.563705307</v>
+        <v>2.64</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2718,6 +2855,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2739,13 +2877,13 @@
         <v>1840869</v>
       </c>
       <c r="G67" t="n">
-        <v>3964293.563705307</v>
+        <v>2.635</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2753,6 +2891,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2774,13 +2913,13 @@
         <v>367605.1311</v>
       </c>
       <c r="G68" t="n">
-        <v>4331898.694805307</v>
+        <v>2.635</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2788,6 +2927,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2809,13 +2949,13 @@
         <v>99312.39200000001</v>
       </c>
       <c r="G69" t="n">
-        <v>4232586.302805307</v>
+        <v>2.625</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2823,6 +2963,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2844,13 +2985,13 @@
         <v>386683.8637</v>
       </c>
       <c r="G70" t="n">
-        <v>4619270.166505307</v>
+        <v>2.614999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2858,6 +2999,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2879,7 +3021,7 @@
         <v>7562</v>
       </c>
       <c r="G71" t="n">
-        <v>4626832.166505307</v>
+        <v>2.635</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,6 +3035,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2914,13 +3057,13 @@
         <v>89719.71030000001</v>
       </c>
       <c r="G72" t="n">
-        <v>4716551.876805307</v>
+        <v>2.655</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2928,6 +3071,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2949,7 +3093,7 @@
         <v>37960</v>
       </c>
       <c r="G73" t="n">
-        <v>4754511.876805307</v>
+        <v>2.665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,6 +3107,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2984,13 +3129,13 @@
         <v>3996.831</v>
       </c>
       <c r="G74" t="n">
-        <v>4758508.707805308</v>
+        <v>2.675</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2998,6 +3143,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3019,7 +3165,7 @@
         <v>48578</v>
       </c>
       <c r="G75" t="n">
-        <v>4758508.707805308</v>
+        <v>2.68</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,6 +3179,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3054,13 +3201,13 @@
         <v>51422</v>
       </c>
       <c r="G76" t="n">
-        <v>4758508.707805308</v>
+        <v>2.68</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3068,6 +3215,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3089,7 +3237,7 @@
         <v>15904.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>4742603.707905307</v>
+        <v>2.675</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,6 +3251,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3124,13 +3273,13 @@
         <v>23075.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>4742603.707905307</v>
+        <v>2.67</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3138,6 +3287,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3159,7 +3309,7 @@
         <v>18980</v>
       </c>
       <c r="G79" t="n">
-        <v>4742603.707905307</v>
+        <v>2.67</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,6 +3323,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3194,13 +3345,13 @@
         <v>517454.2236</v>
       </c>
       <c r="G80" t="n">
-        <v>5260057.931505308</v>
+        <v>2.675</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3208,6 +3359,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3229,7 +3381,7 @@
         <v>112327.4072</v>
       </c>
       <c r="G81" t="n">
-        <v>5147730.524305307</v>
+        <v>2.665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,6 +3395,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3264,13 +3417,13 @@
         <v>668722.5672</v>
       </c>
       <c r="G82" t="n">
-        <v>4479007.957105307</v>
+        <v>2.645</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3278,6 +3431,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3299,13 +3453,13 @@
         <v>19072.5758</v>
       </c>
       <c r="G83" t="n">
-        <v>4479007.957105307</v>
+        <v>2.640000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3313,6 +3467,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3334,13 +3489,13 @@
         <v>209123.5863</v>
       </c>
       <c r="G84" t="n">
-        <v>4269884.370805307</v>
+        <v>2.635000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3348,6 +3503,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3369,13 +3525,13 @@
         <v>2160.3872</v>
       </c>
       <c r="G85" t="n">
-        <v>4272044.758005307</v>
+        <v>2.635000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3383,6 +3539,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3404,13 +3561,13 @@
         <v>74903.50900000001</v>
       </c>
       <c r="G86" t="n">
-        <v>4346948.267005307</v>
+        <v>2.650000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3418,6 +3575,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3439,13 +3597,13 @@
         <v>84032.57030000001</v>
       </c>
       <c r="G87" t="n">
-        <v>4262915.696705307</v>
+        <v>2.65</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3453,6 +3611,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3474,13 +3633,13 @@
         <v>10586.7021</v>
       </c>
       <c r="G88" t="n">
-        <v>4262915.696705307</v>
+        <v>2.640000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3488,6 +3647,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3509,13 +3669,13 @@
         <v>2777767.8589</v>
       </c>
       <c r="G89" t="n">
-        <v>1485147.837805307</v>
+        <v>2.635000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3523,6 +3683,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3544,13 +3705,13 @@
         <v>2459.1831</v>
       </c>
       <c r="G90" t="n">
-        <v>1487607.020905307</v>
+        <v>2.635000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3558,6 +3719,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3579,13 +3741,13 @@
         <v>143517</v>
       </c>
       <c r="G91" t="n">
-        <v>1344090.020905307</v>
+        <v>2.635000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3593,6 +3755,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3614,13 +3777,13 @@
         <v>150000</v>
       </c>
       <c r="G92" t="n">
-        <v>1344090.020905307</v>
+        <v>2.630000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3628,6 +3791,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3649,7 +3813,7 @@
         <v>126956.8917</v>
       </c>
       <c r="G93" t="n">
-        <v>1344090.020905307</v>
+        <v>2.630000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,6 +3827,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3684,7 +3849,7 @@
         <v>113893</v>
       </c>
       <c r="G94" t="n">
-        <v>1230197.020905307</v>
+        <v>2.625000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,6 +3863,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3719,7 +3885,7 @@
         <v>587032.153</v>
       </c>
       <c r="G95" t="n">
-        <v>1230197.020905307</v>
+        <v>2.620000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,6 +3899,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3754,7 +3921,7 @@
         <v>384.6154</v>
       </c>
       <c r="G96" t="n">
-        <v>1229812.405505307</v>
+        <v>2.610000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,6 +3935,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3789,7 +3957,7 @@
         <v>200</v>
       </c>
       <c r="G97" t="n">
-        <v>1230012.405505307</v>
+        <v>2.630000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,6 +3971,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3824,7 +3993,7 @@
         <v>716</v>
       </c>
       <c r="G98" t="n">
-        <v>1229296.405505307</v>
+        <v>2.630000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,6 +4007,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3859,7 +4029,7 @@
         <v>5169.7676</v>
       </c>
       <c r="G99" t="n">
-        <v>1229296.405505307</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,6 +4043,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3894,7 +4065,7 @@
         <v>650442.2793000001</v>
       </c>
       <c r="G100" t="n">
-        <v>578854.126205307</v>
+        <v>2.595000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,6 +4079,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3929,7 +4101,7 @@
         <v>204.3829</v>
       </c>
       <c r="G101" t="n">
-        <v>578649.743305307</v>
+        <v>2.585000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,6 +4115,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3964,20 +4137,27 @@
         <v>179403.8406</v>
       </c>
       <c r="G102" t="n">
-        <v>399245.902705307</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.58</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3999,7 +4179,7 @@
         <v>333</v>
       </c>
       <c r="G103" t="n">
-        <v>399578.902705307</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4009,10 +4189,15 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4034,7 +4219,7 @@
         <v>51800.2019</v>
       </c>
       <c r="G104" t="n">
-        <v>347778.700805307</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,10 +4229,15 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4069,7 +4259,7 @@
         <v>20000</v>
       </c>
       <c r="G105" t="n">
-        <v>367778.700805307</v>
+        <v>2.590000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4079,10 +4269,15 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4104,7 +4299,7 @@
         <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>366778.700805307</v>
+        <v>2.610000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4114,10 +4309,15 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4139,7 +4339,7 @@
         <v>79338.3214</v>
       </c>
       <c r="G107" t="n">
-        <v>287440.379405307</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,10 +4349,15 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4174,7 +4379,7 @@
         <v>13370</v>
       </c>
       <c r="G108" t="n">
-        <v>287440.379405307</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,10 +4389,15 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4209,7 +4419,7 @@
         <v>18759.6901</v>
       </c>
       <c r="G109" t="n">
-        <v>306200.069505307</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,10 +4429,15 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4244,20 +4459,27 @@
         <v>20000</v>
       </c>
       <c r="G110" t="n">
-        <v>306200.069505307</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.58</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4279,7 +4501,7 @@
         <v>562279.7679</v>
       </c>
       <c r="G111" t="n">
-        <v>-256079.698394693</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4289,10 +4511,15 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4314,7 +4541,7 @@
         <v>18156.0528</v>
       </c>
       <c r="G112" t="n">
-        <v>-237923.645594693</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4324,10 +4551,15 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4349,7 +4581,7 @@
         <v>12297.9999</v>
       </c>
       <c r="G113" t="n">
-        <v>-250221.645494693</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4359,10 +4591,15 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4384,7 +4621,7 @@
         <v>69152.83590000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-250221.645494693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,10 +4631,15 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4419,7 +4661,7 @@
         <v>20000</v>
       </c>
       <c r="G115" t="n">
-        <v>-230221.645494693</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4429,10 +4671,15 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4454,20 +4701,27 @@
         <v>291682.1787</v>
       </c>
       <c r="G116" t="n">
-        <v>-521903.8241946929</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.59</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4489,20 +4743,27 @@
         <v>194</v>
       </c>
       <c r="G117" t="n">
-        <v>-521709.8241946929</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4524,7 +4785,7 @@
         <v>36052.9982</v>
       </c>
       <c r="G118" t="n">
-        <v>-557762.8223946929</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4534,10 +4795,15 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4559,7 +4825,7 @@
         <v>193</v>
       </c>
       <c r="G119" t="n">
-        <v>-557569.8223946929</v>
+        <v>2.585000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4569,10 +4835,15 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4594,20 +4865,27 @@
         <v>18646.3913</v>
       </c>
       <c r="G120" t="n">
-        <v>-576216.2136946929</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2.6</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4629,7 +4907,7 @@
         <v>18640</v>
       </c>
       <c r="G121" t="n">
-        <v>-557576.2136946929</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4640,13 +4918,16 @@
       <c r="J121" t="n">
         <v>2.56</v>
       </c>
-      <c r="K121" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4668,26 +4949,27 @@
         <v>36052.998</v>
       </c>
       <c r="G122" t="n">
-        <v>-593629.211694693</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2.56</v>
-      </c>
+      <c r="J122" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4709,26 +4991,27 @@
         <v>26875.1579</v>
       </c>
       <c r="G123" t="n">
-        <v>-566754.053794693</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2.56</v>
-      </c>
+      <c r="J123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4750,20 +5033,27 @@
         <v>226367.269</v>
       </c>
       <c r="G124" t="n">
-        <v>-793121.3227946929</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.58</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4785,7 +5075,7 @@
         <v>46140</v>
       </c>
       <c r="G125" t="n">
-        <v>-746981.3227946929</v>
+        <v>2.550000000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4795,10 +5085,15 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,7 +5115,7 @@
         <v>72269.7882</v>
       </c>
       <c r="G126" t="n">
-        <v>-746981.3227946929</v>
+        <v>2.560000000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4830,10 +5125,15 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4855,20 +5155,27 @@
         <v>279823.9369</v>
       </c>
       <c r="G127" t="n">
-        <v>-467157.385894693</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4890,20 +5197,27 @@
         <v>191160.187</v>
       </c>
       <c r="G128" t="n">
-        <v>-467157.385894693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4925,7 +5239,7 @@
         <v>167485.482</v>
       </c>
       <c r="G129" t="n">
-        <v>-467157.385894693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -4939,12 +5253,13 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4966,15 +5281,17 @@
         <v>53940.1763</v>
       </c>
       <c r="G130" t="n">
-        <v>-467157.385894693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -4984,6 +5301,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5005,7 +5323,7 @@
         <v>160348.5079</v>
       </c>
       <c r="G131" t="n">
-        <v>-467157.385894693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5023,6 +5341,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5044,15 +5363,17 @@
         <v>38910.5058</v>
       </c>
       <c r="G132" t="n">
-        <v>-467157.385894693</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5062,6 +5383,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5083,7 +5405,7 @@
         <v>246.7165</v>
       </c>
       <c r="G133" t="n">
-        <v>-466910.669394693</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5101,6 +5423,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5122,7 +5445,7 @@
         <v>77380.7722007722</v>
       </c>
       <c r="G134" t="n">
-        <v>-389529.8971939208</v>
+        <v>2.585000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5140,6 +5463,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="C2" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="D2" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="E2" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="F2" t="n">
-        <v>16224</v>
+        <v>65936.9207</v>
       </c>
       <c r="G2" t="n">
-        <v>2.549999999999997</v>
+        <v>34009.55510530622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="C3" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="D3" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="E3" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="F3" t="n">
-        <v>102488.9999</v>
+        <v>32240.1169</v>
       </c>
       <c r="G3" t="n">
-        <v>2.549999999999997</v>
+        <v>1769.438205306222</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.49</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="C4" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="D4" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="E4" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="F4" t="n">
-        <v>231526.3202</v>
+        <v>19938.2131</v>
       </c>
       <c r="G4" t="n">
-        <v>2.564999999999997</v>
+        <v>1769.438205306222</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="C5" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="E5" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="F5" t="n">
-        <v>418665.1082</v>
+        <v>49905.993</v>
       </c>
       <c r="G5" t="n">
-        <v>2.584999999999997</v>
+        <v>1769.438205306222</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="C6" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="E6" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="F6" t="n">
-        <v>272222.0261</v>
+        <v>60722.6269</v>
       </c>
       <c r="G6" t="n">
-        <v>2.584999999999997</v>
+        <v>1769.438205306222</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.47</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="C7" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="D7" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="E7" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="F7" t="n">
-        <v>9774</v>
+        <v>99230</v>
       </c>
       <c r="G7" t="n">
-        <v>2.579999999999997</v>
+        <v>100999.4382053062</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="C8" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="D8" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="E8" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="F8" t="n">
-        <v>1808883.2368</v>
+        <v>17557</v>
       </c>
       <c r="G8" t="n">
-        <v>2.584999999999997</v>
+        <v>100999.4382053062</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +730,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="C9" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="E9" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="F9" t="n">
-        <v>2278505.6759</v>
+        <v>56672</v>
       </c>
       <c r="G9" t="n">
-        <v>2.589999999999997</v>
+        <v>157671.4382053062</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +774,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="C10" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="D10" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="E10" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="F10" t="n">
-        <v>214380.3238</v>
+        <v>11660</v>
       </c>
       <c r="G10" t="n">
-        <v>2.589999999999997</v>
+        <v>146011.4382053062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +818,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="C11" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="D11" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="E11" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="F11" t="n">
-        <v>35243</v>
+        <v>67402.8881</v>
       </c>
       <c r="G11" t="n">
-        <v>2.604999999999997</v>
+        <v>213414.3263053062</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +862,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="C12" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="D12" t="n">
-        <v>2.66</v>
+        <v>2.51</v>
       </c>
       <c r="E12" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="F12" t="n">
-        <v>828745.9765</v>
+        <v>118339.4518</v>
       </c>
       <c r="G12" t="n">
-        <v>2.639999999999997</v>
+        <v>95074.87450530623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +906,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="C13" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="D13" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="E13" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="F13" t="n">
-        <v>2373453.5354</v>
+        <v>114873.2555</v>
       </c>
       <c r="G13" t="n">
-        <v>2.674999999999998</v>
+        <v>95074.87450530623</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +950,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="C14" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="D14" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="E14" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="F14" t="n">
-        <v>1705340.9729</v>
+        <v>31126.258</v>
       </c>
       <c r="G14" t="n">
-        <v>2.689999999999998</v>
+        <v>95074.87450530623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +994,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="C15" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="D15" t="n">
-        <v>2.72</v>
+        <v>2.49</v>
       </c>
       <c r="E15" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="F15" t="n">
-        <v>2088533.2336</v>
+        <v>486149.5054</v>
       </c>
       <c r="G15" t="n">
-        <v>2.704999999999998</v>
+        <v>95074.87450530623</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1038,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="C16" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="D16" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="E16" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="F16" t="n">
-        <v>35457.3858</v>
+        <v>30000</v>
       </c>
       <c r="G16" t="n">
-        <v>2.704999999999998</v>
+        <v>95074.87450530623</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1080,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="C17" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="D17" t="n">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="E17" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="F17" t="n">
-        <v>701432.4857</v>
+        <v>122907</v>
       </c>
       <c r="G17" t="n">
-        <v>2.684999999999998</v>
+        <v>-27832.12549469377</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1122,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="C18" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="D18" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="E18" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="F18" t="n">
-        <v>144179.8816</v>
+        <v>46967.8071</v>
       </c>
       <c r="G18" t="n">
-        <v>2.679999999999998</v>
+        <v>-27832.12549469377</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1146,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1164,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="C19" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="D19" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="E19" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="F19" t="n">
-        <v>1215901.5304</v>
+        <v>20900</v>
       </c>
       <c r="G19" t="n">
-        <v>2.699999999999998</v>
+        <v>-6932.12549469377</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1188,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1206,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.66</v>
+        <v>2.47</v>
       </c>
       <c r="C20" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="D20" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="E20" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="F20" t="n">
-        <v>2019151.6425</v>
+        <v>7466</v>
       </c>
       <c r="G20" t="n">
-        <v>2.674999999999999</v>
+        <v>-14398.12549469377</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1248,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="C21" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="D21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="E21" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="F21" t="n">
-        <v>2954859.3624</v>
+        <v>254479.0013</v>
       </c>
       <c r="G21" t="n">
-        <v>2.629999999999999</v>
+        <v>240080.8758053062</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1290,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="C22" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="D22" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="E22" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="F22" t="n">
-        <v>633423.3605</v>
+        <v>24308</v>
       </c>
       <c r="G22" t="n">
-        <v>2.629999999999999</v>
+        <v>240080.8758053062</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1332,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="C23" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="D23" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="E23" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="F23" t="n">
-        <v>25091.2052</v>
+        <v>12810</v>
       </c>
       <c r="G23" t="n">
-        <v>2.629999999999999</v>
+        <v>240080.8758053062</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1356,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1374,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="C24" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="E24" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="F24" t="n">
-        <v>432263.5008</v>
+        <v>19278.3489</v>
       </c>
       <c r="G24" t="n">
-        <v>2.614999999999999</v>
+        <v>240080.8758053062</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1416,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="D25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E25" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="F25" t="n">
-        <v>264458.3327</v>
+        <v>195385.0401</v>
       </c>
       <c r="G25" t="n">
-        <v>2.599999999999999</v>
+        <v>240080.8758053062</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1440,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1458,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="C26" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="D26" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="E26" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="F26" t="n">
-        <v>383113.6927</v>
+        <v>18429.3132</v>
       </c>
       <c r="G26" t="n">
-        <v>2.594999999999999</v>
+        <v>258510.1890053063</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1500,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="C27" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="D27" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="E27" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="F27" t="n">
-        <v>538818.6654000001</v>
+        <v>44444.4009</v>
       </c>
       <c r="G27" t="n">
-        <v>2.589999999999999</v>
+        <v>258510.1890053063</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1524,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1542,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="n">
-        <v>60000</v>
+        <v>58740</v>
       </c>
       <c r="G28" t="n">
-        <v>2.594999999999999</v>
+        <v>317250.1890053062</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1566,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1584,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="C29" t="n">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="D29" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="E29" t="n">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="F29" t="n">
-        <v>2934774.2339</v>
+        <v>33934</v>
       </c>
       <c r="G29" t="n">
-        <v>2.594999999999999</v>
+        <v>351184.1890053062</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1608,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1626,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="C30" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D30" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="E30" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="F30" t="n">
-        <v>68946.6029</v>
+        <v>1037335.8977</v>
       </c>
       <c r="G30" t="n">
-        <v>2.589999999999999</v>
+        <v>1388520.086705306</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1650,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1668,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C31" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D31" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E31" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="F31" t="n">
-        <v>5250</v>
+        <v>16224</v>
       </c>
       <c r="G31" t="n">
-        <v>2.589999999999999</v>
+        <v>1388520.086705306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1692,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1710,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="C32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F32" t="n">
-        <v>750</v>
+        <v>102488.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>2.594999999999999</v>
+        <v>1388520.086705306</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1734,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1752,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C33" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D33" t="n">
         <v>2.59</v>
       </c>
       <c r="E33" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F33" t="n">
-        <v>218.3263</v>
+        <v>231526.3202</v>
       </c>
       <c r="G33" t="n">
-        <v>2.594999999999999</v>
+        <v>1620046.406905306</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1776,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1794,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C34" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="D34" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E34" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="F34" t="n">
-        <v>76857.4822</v>
+        <v>418665.1082</v>
       </c>
       <c r="G34" t="n">
-        <v>2.564999999999999</v>
+        <v>2038711.515105306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1818,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1836,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E35" t="n">
         <v>2.57</v>
       </c>
-      <c r="D35" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F35" t="n">
-        <v>385228.9196</v>
+        <v>272222.0261</v>
       </c>
       <c r="G35" t="n">
-        <v>2.554999999999999</v>
+        <v>1766489.489005306</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1881,19 @@
         <v>2.58</v>
       </c>
       <c r="C36" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D36" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="E36" t="n">
         <v>2.58</v>
       </c>
       <c r="F36" t="n">
-        <v>331892.5663</v>
+        <v>9774</v>
       </c>
       <c r="G36" t="n">
-        <v>2.589999999999999</v>
+        <v>1766489.489005306</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1902,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1920,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="C37" t="n">
         <v>2.59</v>
       </c>
       <c r="D37" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E37" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F37" t="n">
-        <v>79939.61199999999</v>
+        <v>1808883.2368</v>
       </c>
       <c r="G37" t="n">
-        <v>2.599999999999999</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1944,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1737,19 +1965,19 @@
         <v>2.59</v>
       </c>
       <c r="C38" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D38" t="n">
         <v>2.6</v>
       </c>
       <c r="E38" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F38" t="n">
-        <v>225466.3122</v>
+        <v>2278505.6759</v>
       </c>
       <c r="G38" t="n">
-        <v>2.594999999999999</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1986,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2004,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="C39" t="n">
         <v>2.59</v>
       </c>
       <c r="D39" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E39" t="n">
         <v>2.59</v>
       </c>
       <c r="F39" t="n">
-        <v>163591.0739</v>
+        <v>214380.3238</v>
       </c>
       <c r="G39" t="n">
-        <v>2.594999999999999</v>
+        <v>3575372.725805306</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,7 +2046,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C40" t="n">
         <v>2.62</v>
@@ -1815,13 +2055,13 @@
         <v>2.62</v>
       </c>
       <c r="E40" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F40" t="n">
-        <v>96166.079</v>
+        <v>35243</v>
       </c>
       <c r="G40" t="n">
-        <v>2.604999999999999</v>
+        <v>3610615.725805306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2070,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2088,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C41" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="D41" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="E41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F41" t="n">
-        <v>93774.0168</v>
+        <v>828745.9765</v>
       </c>
       <c r="G41" t="n">
-        <v>2.609999999999999</v>
+        <v>4439361.702305307</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2112,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,36 +2130,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="C42" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="D42" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F42" t="n">
-        <v>111772.8938</v>
+        <v>2373453.5354</v>
       </c>
       <c r="G42" t="n">
-        <v>2.614999999999998</v>
+        <v>6812815.237705307</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +2172,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="C43" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D43" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E43" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F43" t="n">
-        <v>607367.6675</v>
+        <v>1705340.9729</v>
       </c>
       <c r="G43" t="n">
-        <v>2.634999999999999</v>
+        <v>6812815.237705307</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1943,11 +2197,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1960,22 +2214,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C44" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="D44" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="E44" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="F44" t="n">
-        <v>488870.0319</v>
+        <v>2088533.2336</v>
       </c>
       <c r="G44" t="n">
-        <v>2.639999999999999</v>
+        <v>8901348.471305307</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1985,11 +2239,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2002,22 +2256,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="C45" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="D45" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="E45" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="F45" t="n">
-        <v>91100</v>
+        <v>35457.3858</v>
       </c>
       <c r="G45" t="n">
-        <v>2.634999999999999</v>
+        <v>8865891.085505307</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2027,7 +2281,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2044,80 +2298,76 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="C46" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="D46" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="E46" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="F46" t="n">
-        <v>46400.2119</v>
+        <v>701432.4857</v>
       </c>
       <c r="G46" t="n">
-        <v>2.599999999999999</v>
+        <v>8164458.599805307</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>1.08002024291498</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.008097165991903</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C47" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="D47" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E47" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="F47" t="n">
-        <v>32250</v>
+        <v>144179.8816</v>
       </c>
       <c r="G47" t="n">
-        <v>2.599999999999999</v>
+        <v>8164458.599805307</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2128,38 +2378,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="C48" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="D48" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="E48" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="F48" t="n">
-        <v>247624</v>
+        <v>1215901.5304</v>
       </c>
       <c r="G48" t="n">
-        <v>2.654999999999998</v>
+        <v>9380360.130205307</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2170,38 +2414,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="C49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="D49" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="E49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F49" t="n">
-        <v>71918</v>
+        <v>2019151.6425</v>
       </c>
       <c r="G49" t="n">
-        <v>2.639999999999998</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2212,38 +2450,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C50" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="D50" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E50" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F50" t="n">
-        <v>70036</v>
+        <v>2954859.3624</v>
       </c>
       <c r="G50" t="n">
-        <v>2.609999999999999</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2254,38 +2486,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="C51" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D51" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E51" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F51" t="n">
-        <v>178788</v>
+        <v>633423.3605</v>
       </c>
       <c r="G51" t="n">
-        <v>2.634999999999999</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2308,26 +2534,20 @@
         <v>2.63</v>
       </c>
       <c r="F52" t="n">
-        <v>78544.6283</v>
+        <v>25091.2052</v>
       </c>
       <c r="G52" t="n">
-        <v>2.639999999999999</v>
+        <v>7361208.487705307</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2338,38 +2558,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="C53" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="E53" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="F53" t="n">
-        <v>103225.6283</v>
+        <v>432263.5008</v>
       </c>
       <c r="G53" t="n">
-        <v>2.644999999999999</v>
+        <v>6928944.986905308</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2380,38 +2594,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="C54" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="E54" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F54" t="n">
-        <v>327552</v>
+        <v>264458.3327</v>
       </c>
       <c r="G54" t="n">
-        <v>2.664999999999999</v>
+        <v>6928944.986905308</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,72 +2630,64 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C55" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="D55" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="E55" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="F55" t="n">
-        <v>7160</v>
+        <v>383113.6927</v>
       </c>
       <c r="G55" t="n">
-        <v>2.674999999999999</v>
+        <v>6545831.294205308</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>1.025769230769231</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.088</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="C56" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="D56" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="E56" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F56" t="n">
-        <v>7004</v>
+        <v>538818.6654000001</v>
       </c>
       <c r="G56" t="n">
-        <v>2.654999999999999</v>
+        <v>6545831.294205308</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2502,22 +2702,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="C57" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="E57" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F57" t="n">
-        <v>268</v>
+        <v>60000</v>
       </c>
       <c r="G57" t="n">
-        <v>2.649999999999999</v>
+        <v>6605831.294205308</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2538,28 +2738,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C58" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="D58" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E58" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="F58" t="n">
-        <v>132840</v>
+        <v>2934774.2339</v>
       </c>
       <c r="G58" t="n">
-        <v>2.679999999999998</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2574,28 +2774,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="C59" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="D59" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="E59" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="F59" t="n">
-        <v>80000</v>
+        <v>68946.6029</v>
       </c>
       <c r="G59" t="n">
-        <v>2.689999999999999</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2610,28 +2810,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="C60" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="D60" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="E60" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="F60" t="n">
-        <v>154800</v>
+        <v>5250</v>
       </c>
       <c r="G60" t="n">
-        <v>2.694999999999999</v>
+        <v>3671057.060305308</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2646,28 +2846,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="C61" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="E61" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="F61" t="n">
-        <v>65366.5604</v>
+        <v>750</v>
       </c>
       <c r="G61" t="n">
-        <v>2.69</v>
+        <v>3671807.060305308</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2682,28 +2882,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="C62" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="D62" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="E62" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="F62" t="n">
-        <v>96845.65150000001</v>
+        <v>218.3263</v>
       </c>
       <c r="G62" t="n">
-        <v>2.669999999999999</v>
+        <v>3671588.734005308</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2718,28 +2918,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="C63" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="D63" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="E63" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="F63" t="n">
-        <v>7523</v>
+        <v>76857.4822</v>
       </c>
       <c r="G63" t="n">
-        <v>2.649999999999999</v>
+        <v>3594731.251805308</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2754,28 +2954,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="C64" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="D64" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="E64" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="F64" t="n">
-        <v>14810</v>
+        <v>385228.9196</v>
       </c>
       <c r="G64" t="n">
-        <v>2.64</v>
+        <v>3979960.171405308</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2790,28 +2990,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C65" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D65" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E65" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="F65" t="n">
-        <v>26467.6087</v>
+        <v>331892.5663</v>
       </c>
       <c r="G65" t="n">
-        <v>2.64</v>
+        <v>4311852.737705308</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2826,28 +3026,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="C66" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="D66" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="E66" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F66" t="n">
-        <v>136786</v>
+        <v>79939.61199999999</v>
       </c>
       <c r="G66" t="n">
-        <v>2.64</v>
+        <v>4231913.125705308</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2862,28 +3062,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="C67" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E67" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="F67" t="n">
-        <v>1840869</v>
+        <v>225466.3122</v>
       </c>
       <c r="G67" t="n">
-        <v>2.635</v>
+        <v>4457379.437905308</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2898,28 +3098,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="C68" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="D68" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E68" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="F68" t="n">
-        <v>367605.1311</v>
+        <v>163591.0739</v>
       </c>
       <c r="G68" t="n">
-        <v>2.635</v>
+        <v>4293788.364005308</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2934,28 +3134,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C69" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D69" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E69" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="F69" t="n">
-        <v>99312.39200000001</v>
+        <v>96166.079</v>
       </c>
       <c r="G69" t="n">
-        <v>2.625</v>
+        <v>4389954.443005308</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2970,28 +3170,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C70" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="E70" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="F70" t="n">
-        <v>386683.8637</v>
+        <v>93774.0168</v>
       </c>
       <c r="G70" t="n">
-        <v>2.614999999999999</v>
+        <v>4296180.426205307</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3006,22 +3206,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C71" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D71" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E71" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F71" t="n">
-        <v>7562</v>
+        <v>111772.8938</v>
       </c>
       <c r="G71" t="n">
-        <v>2.635</v>
+        <v>4407953.320005307</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3042,28 +3242,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C72" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D72" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E72" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F72" t="n">
-        <v>89719.71030000001</v>
+        <v>607367.6675</v>
       </c>
       <c r="G72" t="n">
-        <v>2.655</v>
+        <v>5015320.987505307</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3078,28 +3278,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="C73" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="D73" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="E73" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F73" t="n">
-        <v>37960</v>
+        <v>488870.0319</v>
       </c>
       <c r="G73" t="n">
-        <v>2.665</v>
+        <v>5015320.987505307</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3114,22 +3314,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C74" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D74" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E74" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="F74" t="n">
-        <v>3996.831</v>
+        <v>91100</v>
       </c>
       <c r="G74" t="n">
-        <v>2.675</v>
+        <v>4924220.987505307</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3150,28 +3350,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C75" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="D75" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E75" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="F75" t="n">
-        <v>48578</v>
+        <v>46400.2119</v>
       </c>
       <c r="G75" t="n">
-        <v>2.68</v>
+        <v>4877820.775605307</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3186,28 +3386,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="C76" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D76" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E76" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="F76" t="n">
-        <v>51422</v>
+        <v>32250</v>
       </c>
       <c r="G76" t="n">
-        <v>2.68</v>
+        <v>4910070.775605307</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3222,28 +3422,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="C77" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="D77" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="E77" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="F77" t="n">
-        <v>15904.9999</v>
+        <v>247624</v>
       </c>
       <c r="G77" t="n">
-        <v>2.675</v>
+        <v>5157694.775605307</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3258,22 +3458,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C78" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D78" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="E78" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="F78" t="n">
-        <v>23075.0001</v>
+        <v>71918</v>
       </c>
       <c r="G78" t="n">
-        <v>2.67</v>
+        <v>5085776.775605307</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3294,28 +3494,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="C79" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="D79" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="E79" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="F79" t="n">
-        <v>18980</v>
+        <v>70036</v>
       </c>
       <c r="G79" t="n">
-        <v>2.67</v>
+        <v>5155812.775605307</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3330,28 +3530,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C80" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="D80" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="E80" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="F80" t="n">
-        <v>517454.2236</v>
+        <v>178788</v>
       </c>
       <c r="G80" t="n">
-        <v>2.675</v>
+        <v>5334600.775605307</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3366,28 +3566,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="C81" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D81" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="E81" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F81" t="n">
-        <v>112327.4072</v>
+        <v>78544.6283</v>
       </c>
       <c r="G81" t="n">
-        <v>2.665</v>
+        <v>5256056.147305307</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3402,28 +3602,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="C82" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="E82" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="F82" t="n">
-        <v>668722.5672</v>
+        <v>103225.6283</v>
       </c>
       <c r="G82" t="n">
-        <v>2.645</v>
+        <v>5359281.775605307</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3438,28 +3638,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C83" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D83" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E83" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F83" t="n">
-        <v>19072.5758</v>
+        <v>327552</v>
       </c>
       <c r="G83" t="n">
-        <v>2.640000000000001</v>
+        <v>5686833.775605307</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3474,28 +3674,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C84" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="D84" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E84" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="F84" t="n">
-        <v>209123.5863</v>
+        <v>7160</v>
       </c>
       <c r="G84" t="n">
-        <v>2.635000000000001</v>
+        <v>5693993.775605307</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3510,28 +3710,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="C85" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="D85" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="E85" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F85" t="n">
-        <v>2160.3872</v>
+        <v>7004</v>
       </c>
       <c r="G85" t="n">
-        <v>2.635000000000001</v>
+        <v>5686989.775605307</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3546,28 +3746,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="C86" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="D86" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="E86" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="F86" t="n">
-        <v>74903.50900000001</v>
+        <v>268</v>
       </c>
       <c r="G86" t="n">
-        <v>2.650000000000001</v>
+        <v>5687257.775605307</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3582,28 +3782,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C87" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D87" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E87" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="F87" t="n">
-        <v>84032.57030000001</v>
+        <v>132840</v>
       </c>
       <c r="G87" t="n">
-        <v>2.65</v>
+        <v>5820097.775605307</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3618,28 +3818,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="C88" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="D88" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="E88" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F88" t="n">
-        <v>10586.7021</v>
+        <v>80000</v>
       </c>
       <c r="G88" t="n">
-        <v>2.640000000000001</v>
+        <v>5820097.775605307</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3654,28 +3854,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="C89" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="D89" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="E89" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2777767.8589</v>
+        <v>154800</v>
       </c>
       <c r="G89" t="n">
-        <v>2.635000000000001</v>
+        <v>5974897.775605307</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3690,28 +3890,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="C90" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="D90" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="E90" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="F90" t="n">
-        <v>2459.1831</v>
+        <v>65366.5604</v>
       </c>
       <c r="G90" t="n">
-        <v>2.635000000000001</v>
+        <v>5909531.215205307</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3726,28 +3926,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C91" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="D91" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E91" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F91" t="n">
-        <v>143517</v>
+        <v>96845.65150000001</v>
       </c>
       <c r="G91" t="n">
-        <v>2.635000000000001</v>
+        <v>5812685.563705307</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3762,28 +3962,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C92" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D92" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E92" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F92" t="n">
-        <v>150000</v>
+        <v>7523</v>
       </c>
       <c r="G92" t="n">
-        <v>2.630000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3798,22 +3998,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C93" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D93" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E93" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F93" t="n">
-        <v>126956.8917</v>
+        <v>14810</v>
       </c>
       <c r="G93" t="n">
-        <v>2.630000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3834,22 +4034,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C94" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="D94" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E94" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="F94" t="n">
-        <v>113893</v>
+        <v>26467.6087</v>
       </c>
       <c r="G94" t="n">
-        <v>2.625000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3870,22 +4070,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="D95" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="E95" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="F95" t="n">
-        <v>587032.153</v>
+        <v>136786</v>
       </c>
       <c r="G95" t="n">
-        <v>2.620000000000001</v>
+        <v>5805162.563705307</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3906,22 +4106,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C96" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="D96" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="E96" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F96" t="n">
-        <v>384.6154</v>
+        <v>1840869</v>
       </c>
       <c r="G96" t="n">
-        <v>2.610000000000001</v>
+        <v>3964293.563705307</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3942,22 +4142,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C97" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D97" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E97" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>367605.1311</v>
       </c>
       <c r="G97" t="n">
-        <v>2.630000000000001</v>
+        <v>4331898.694805307</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3978,22 +4178,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="C98" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="D98" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="E98" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F98" t="n">
-        <v>716</v>
+        <v>99312.39200000001</v>
       </c>
       <c r="G98" t="n">
-        <v>2.630000000000001</v>
+        <v>4232586.302805307</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4014,22 +4214,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="C99" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="D99" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="E99" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F99" t="n">
-        <v>5169.7676</v>
+        <v>386683.8637</v>
       </c>
       <c r="G99" t="n">
-        <v>2.600000000000001</v>
+        <v>4619270.166505307</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4050,22 +4250,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C100" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="D100" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="E100" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F100" t="n">
-        <v>650442.2793000001</v>
+        <v>7562</v>
       </c>
       <c r="G100" t="n">
-        <v>2.595000000000001</v>
+        <v>4626832.166505307</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4086,22 +4286,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="C101" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="D101" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="E101" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="F101" t="n">
-        <v>204.3829</v>
+        <v>89719.71030000001</v>
       </c>
       <c r="G101" t="n">
-        <v>2.585000000000001</v>
+        <v>4716551.876805307</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4122,38 +4322,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D102" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="E102" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F102" t="n">
-        <v>179403.8406</v>
+        <v>37960</v>
       </c>
       <c r="G102" t="n">
-        <v>2.570000000000001</v>
+        <v>4754511.876805307</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4164,22 +4358,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="C103" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="D103" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="E103" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="F103" t="n">
-        <v>333</v>
+        <v>3996.831</v>
       </c>
       <c r="G103" t="n">
-        <v>2.575000000000001</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4189,11 +4383,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4394,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="C104" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="D104" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="E104" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="F104" t="n">
-        <v>51800.2019</v>
+        <v>48578</v>
       </c>
       <c r="G104" t="n">
-        <v>2.575000000000001</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4229,11 +4419,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4244,22 +4430,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C105" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="D105" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E105" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="F105" t="n">
-        <v>20000</v>
+        <v>51422</v>
       </c>
       <c r="G105" t="n">
-        <v>2.590000000000001</v>
+        <v>4758508.707805308</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4269,11 +4455,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4466,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="C106" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="D106" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="E106" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>15904.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>2.610000000000001</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4309,11 +4491,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4502,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="C107" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D107" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="E107" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F107" t="n">
-        <v>79338.3214</v>
+        <v>23075.0001</v>
       </c>
       <c r="G107" t="n">
-        <v>2.580000000000001</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4349,11 +4527,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4538,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="C108" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D108" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="E108" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="F108" t="n">
-        <v>13370</v>
+        <v>18980</v>
       </c>
       <c r="G108" t="n">
-        <v>2.560000000000001</v>
+        <v>4742603.707905307</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4389,11 +4563,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4574,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="C109" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="D109" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="E109" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="F109" t="n">
-        <v>18759.6901</v>
+        <v>517454.2236</v>
       </c>
       <c r="G109" t="n">
-        <v>2.570000000000001</v>
+        <v>5260057.931505308</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4429,11 +4599,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4444,38 +4610,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="D110" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="E110" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F110" t="n">
-        <v>20000</v>
+        <v>112327.4072</v>
       </c>
       <c r="G110" t="n">
-        <v>2.580000000000001</v>
+        <v>5147730.524305307</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4486,22 +4646,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="C111" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="D111" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="E111" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="F111" t="n">
-        <v>562279.7679</v>
+        <v>668722.5672</v>
       </c>
       <c r="G111" t="n">
-        <v>2.555000000000001</v>
+        <v>4479007.957105307</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4511,11 +4671,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4526,22 +4682,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="D112" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E112" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="F112" t="n">
-        <v>18156.0528</v>
+        <v>19072.5758</v>
       </c>
       <c r="G112" t="n">
-        <v>2.555000000000001</v>
+        <v>4479007.957105307</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4551,11 +4707,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4718,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E113" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F113" t="n">
-        <v>12297.9999</v>
+        <v>209123.5863</v>
       </c>
       <c r="G113" t="n">
-        <v>2.575000000000001</v>
+        <v>4269884.370805307</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4591,11 +4743,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4606,22 +4754,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C114" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="D114" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E114" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="F114" t="n">
-        <v>69152.83590000001</v>
+        <v>2160.3872</v>
       </c>
       <c r="G114" t="n">
-        <v>2.570000000000001</v>
+        <v>4272044.758005307</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4631,11 +4779,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4646,22 +4790,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C115" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="D115" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="E115" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F115" t="n">
-        <v>20000</v>
+        <v>74903.50900000001</v>
       </c>
       <c r="G115" t="n">
-        <v>2.580000000000001</v>
+        <v>4346948.267005307</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4671,11 +4815,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4686,38 +4826,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C116" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="D116" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E116" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="F116" t="n">
-        <v>291682.1787</v>
+        <v>84032.57030000001</v>
       </c>
       <c r="G116" t="n">
-        <v>2.580000000000001</v>
+        <v>4262915.696705307</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4728,38 +4862,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="D117" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E117" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="F117" t="n">
-        <v>194</v>
+        <v>10586.7021</v>
       </c>
       <c r="G117" t="n">
-        <v>2.575000000000001</v>
+        <v>4262915.696705307</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4770,22 +4898,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C118" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D118" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E118" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F118" t="n">
-        <v>36052.9982</v>
+        <v>2777767.8589</v>
       </c>
       <c r="G118" t="n">
-        <v>2.575000000000001</v>
+        <v>1485147.837805307</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4795,11 +4923,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4810,22 +4934,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C119" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="E119" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F119" t="n">
-        <v>193</v>
+        <v>2459.1831</v>
       </c>
       <c r="G119" t="n">
-        <v>2.585000000000001</v>
+        <v>1487607.020905307</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4835,11 +4959,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4850,38 +4970,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="C120" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="D120" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="E120" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="F120" t="n">
-        <v>18646.3913</v>
+        <v>143517</v>
       </c>
       <c r="G120" t="n">
-        <v>2.580000000000001</v>
+        <v>1344090.020905307</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4892,38 +5006,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C121" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="D121" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E121" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="F121" t="n">
-        <v>18640</v>
+        <v>150000</v>
       </c>
       <c r="G121" t="n">
-        <v>2.570000000000001</v>
+        <v>1344090.020905307</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>2.56</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4934,38 +5042,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D122" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E122" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F122" t="n">
-        <v>36052.998</v>
+        <v>126956.8917</v>
       </c>
       <c r="G122" t="n">
-        <v>2.575000000000001</v>
+        <v>1344090.020905307</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4976,38 +5078,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C123" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="D123" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E123" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F123" t="n">
-        <v>26875.1579</v>
+        <v>113893</v>
       </c>
       <c r="G123" t="n">
-        <v>2.575000000000001</v>
+        <v>1230197.020905307</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5018,38 +5114,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="C124" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="D124" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="E124" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="F124" t="n">
-        <v>226367.269</v>
+        <v>587032.153</v>
       </c>
       <c r="G124" t="n">
-        <v>2.560000000000001</v>
+        <v>1230197.020905307</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5060,22 +5150,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="C125" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="D125" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E125" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F125" t="n">
-        <v>46140</v>
+        <v>384.6154</v>
       </c>
       <c r="G125" t="n">
-        <v>2.550000000000002</v>
+        <v>1229812.405505307</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5085,11 +5175,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +5186,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C126" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="D126" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="E126" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="F126" t="n">
-        <v>72269.7882</v>
+        <v>200</v>
       </c>
       <c r="G126" t="n">
-        <v>2.560000000000002</v>
+        <v>1230012.405505307</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5125,11 +5211,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5140,38 +5222,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C127" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D127" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="E127" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F127" t="n">
-        <v>279823.9369</v>
+        <v>716</v>
       </c>
       <c r="G127" t="n">
-        <v>2.565000000000001</v>
+        <v>1229296.405505307</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.56</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5182,38 +5258,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="C128" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D128" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="E128" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F128" t="n">
-        <v>191160.187</v>
+        <v>5169.7676</v>
       </c>
       <c r="G128" t="n">
-        <v>2.570000000000001</v>
+        <v>1229296.405505307</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5224,38 +5294,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C129" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D129" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E129" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F129" t="n">
-        <v>167485.482</v>
+        <v>650442.2793000001</v>
       </c>
       <c r="G129" t="n">
-        <v>2.570000000000001</v>
+        <v>578854.126205307</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5266,38 +5330,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C130" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D130" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E130" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F130" t="n">
-        <v>53940.1763</v>
+        <v>204.3829</v>
       </c>
       <c r="G130" t="n">
-        <v>2.570000000000001</v>
+        <v>578649.743305307</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5308,22 +5366,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C131" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D131" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E131" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F131" t="n">
-        <v>160348.5079</v>
+        <v>179403.8406</v>
       </c>
       <c r="G131" t="n">
-        <v>2.570000000000001</v>
+        <v>399245.902705307</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5333,11 +5391,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5348,38 +5402,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C132" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D132" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E132" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F132" t="n">
-        <v>38910.5058</v>
+        <v>333</v>
       </c>
       <c r="G132" t="n">
-        <v>2.570000000000001</v>
+        <v>399578.902705307</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5390,22 +5438,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="C133" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="E133" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F133" t="n">
-        <v>246.7165</v>
+        <v>51800.2019</v>
       </c>
       <c r="G133" t="n">
-        <v>2.575000000000001</v>
+        <v>347778.700805307</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5415,11 +5463,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5430,22 +5474,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="C134" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="D134" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="E134" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F134" t="n">
-        <v>77380.7722007722</v>
+        <v>20000</v>
       </c>
       <c r="G134" t="n">
-        <v>2.585000000000001</v>
+        <v>367778.700805307</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5455,15 +5499,1055 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
       <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>366778.700805307</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F136" t="n">
+        <v>79338.3214</v>
+      </c>
+      <c r="G136" t="n">
+        <v>287440.379405307</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13370</v>
+      </c>
+      <c r="G137" t="n">
+        <v>287440.379405307</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18759.6901</v>
+      </c>
+      <c r="G138" t="n">
+        <v>306200.069505307</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>306200.069505307</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F140" t="n">
+        <v>562279.7679</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-256079.698394693</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F141" t="n">
+        <v>18156.0528</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-237923.645594693</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12297.9999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-250221.645494693</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F143" t="n">
+        <v>69152.83590000001</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-250221.645494693</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-230221.645494693</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F145" t="n">
+        <v>291682.1787</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-521903.8241946929</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F146" t="n">
+        <v>194</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-521709.8241946929</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F147" t="n">
+        <v>36052.9982</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-557762.8223946929</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>193</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-557569.8223946929</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18646.3913</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-576216.2136946929</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18640</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-557576.2136946929</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36052.998</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-593629.211694693</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26875.1579</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-566754.053794693</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F153" t="n">
+        <v>226367.269</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-793121.3227946929</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F154" t="n">
+        <v>46140</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-746981.3227946929</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F155" t="n">
+        <v>72269.7882</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-746981.3227946929</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F156" t="n">
+        <v>279823.9369</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F157" t="n">
+        <v>191160.187</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F158" t="n">
+        <v>167485.482</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F159" t="n">
+        <v>53940.1763</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F160" t="n">
+        <v>160348.5079</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F161" t="n">
+        <v>38910.5058</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-467157.385894693</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F162" t="n">
+        <v>246.7165</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-466910.669394693</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F163" t="n">
+        <v>77380.7722007722</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-389529.8971939208</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>34009.55510530622</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +583,19 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="J6" t="n">
         <v>2.47</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +620,23 @@
         <v>100999.4382053062</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="J7" t="n">
         <v>2.47</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +661,23 @@
         <v>100999.4382053062</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +702,23 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +743,23 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="J10" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +784,23 @@
         <v>213414.3263053062</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +825,21 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +864,21 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +903,21 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +942,21 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1058,22 +983,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,22 +1022,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,22 +1061,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1182,24 +1098,23 @@
         <v>-6932.12549469377</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,22 +1141,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,22 +1180,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,22 +1219,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,22 +1258,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,22 +1297,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1434,24 +1334,23 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>2.48</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1478,22 +1377,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1520,22 +1416,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1562,22 +1455,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1604,22 +1494,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1646,22 +1533,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1688,22 +1572,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,22 +1611,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1772,22 +1650,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1814,22 +1689,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1856,22 +1728,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1898,22 +1767,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1940,22 +1806,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1982,22 +1845,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2024,22 +1884,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,22 +1923,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,22 +1962,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2150,22 +2001,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2192,22 +2040,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2234,22 +2079,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2276,22 +2118,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2316,26 +2155,21 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1.08002024291498</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.008097165991903</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2362,16 +2196,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2398,16 +2235,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2434,16 +2274,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2468,18 +2311,21 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2506,16 +2352,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2540,18 +2389,21 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2578,16 +2430,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2614,16 +2469,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2650,16 +2508,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2686,16 +2547,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2722,16 +2586,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2758,16 +2625,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2794,16 +2664,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2828,18 +2701,21 @@
         <v>3671057.060305308</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2866,16 +2742,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2902,16 +2781,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2938,16 +2820,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2974,16 +2859,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3010,16 +2898,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,16 +2937,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3082,16 +2976,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3118,16 +3015,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,16 +3054,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3190,16 +3093,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3226,16 +3132,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,16 +3171,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3298,16 +3210,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3334,16 +3249,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3370,16 +3288,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3406,16 +3327,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3442,16 +3366,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3478,16 +3405,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3514,16 +3444,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3550,16 +3483,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3586,16 +3522,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3622,16 +3561,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3658,16 +3600,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3694,16 +3639,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3730,16 +3678,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3766,16 +3717,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3802,16 +3756,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3838,16 +3795,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3872,18 +3832,23 @@
         <v>5974897.775605307</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.088117408906883</v>
+      </c>
       <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1.008097165991903</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3908,18 +3873,15 @@
         <v>5909531.215205307</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3944,18 +3906,15 @@
         <v>5812685.563705307</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3980,18 +3939,15 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4016,18 +3972,15 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4052,18 +4005,15 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4090,16 +4040,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4126,16 +4073,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4162,16 +4106,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4198,16 +4139,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4234,16 +4172,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,16 +4205,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4306,16 +4238,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4342,16 +4271,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4378,16 +4304,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4412,18 +4335,15 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4450,16 +4370,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4484,18 +4401,15 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4520,18 +4434,15 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4558,16 +4469,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4592,18 +4500,15 @@
         <v>5260057.931505308</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4630,16 +4535,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4666,16 +4568,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4702,16 +4601,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4738,16 +4634,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4774,16 +4667,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4810,16 +4700,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4846,16 +4733,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4882,16 +4766,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4918,16 +4799,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4954,16 +4832,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4990,16 +4865,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5026,16 +4898,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5060,18 +4929,15 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5098,16 +4964,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5134,16 +4997,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,16 +5030,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5206,16 +5063,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5242,16 +5096,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5278,16 +5129,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5314,16 +5162,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5350,16 +5195,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5386,16 +5228,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5422,16 +5261,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5458,16 +5294,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5494,16 +5327,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5530,16 +5360,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5566,16 +5393,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5602,16 +5426,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5638,16 +5459,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5674,16 +5492,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5710,16 +5525,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5746,16 +5558,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5782,16 +5591,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5818,16 +5624,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5854,16 +5657,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5890,16 +5690,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5926,16 +5723,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5962,16 +5756,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5998,16 +5789,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6034,16 +5822,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6070,16 +5855,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6106,16 +5888,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6142,16 +5921,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6178,16 +5954,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6214,16 +5987,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6250,16 +6020,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6286,16 +6053,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6322,16 +6086,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6358,16 +6119,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6394,16 +6152,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6430,16 +6185,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6466,16 +6218,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6502,16 +6251,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6538,18 +6284,15 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>34009.55510530622</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.49</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +603,7 @@
         <v>1769.438205306222</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2.47</v>
@@ -620,7 +640,7 @@
         <v>100999.4382053062</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2.47</v>
@@ -661,7 +681,7 @@
         <v>100999.4382053062</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2.48</v>
@@ -702,7 +722,7 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2.48</v>
@@ -743,7 +763,7 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2.49</v>
@@ -784,7 +804,7 @@
         <v>213414.3263053062</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2.48</v>
@@ -825,9 +845,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J12" t="n">
         <v>2.47</v>
       </c>
@@ -864,9 +886,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J13" t="n">
         <v>2.47</v>
       </c>
@@ -903,9 +927,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J14" t="n">
         <v>2.47</v>
       </c>
@@ -942,9 +968,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J15" t="n">
         <v>2.47</v>
       </c>
@@ -981,9 +1009,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J16" t="n">
         <v>2.47</v>
       </c>
@@ -1020,9 +1050,11 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J17" t="n">
         <v>2.47</v>
       </c>
@@ -1059,9 +1091,11 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.47</v>
+      </c>
       <c r="J18" t="n">
         <v>2.47</v>
       </c>
@@ -1098,7 +1132,7 @@
         <v>-6932.12549469377</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>2.47</v>
@@ -1139,9 +1173,11 @@
         <v>-14398.12549469377</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J20" t="n">
         <v>2.47</v>
       </c>
@@ -1178,9 +1214,11 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.47</v>
+      </c>
       <c r="J21" t="n">
         <v>2.47</v>
       </c>
@@ -1217,9 +1255,11 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J22" t="n">
         <v>2.47</v>
       </c>
@@ -1256,9 +1296,11 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J23" t="n">
         <v>2.47</v>
       </c>
@@ -1295,9 +1337,11 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J24" t="n">
         <v>2.47</v>
       </c>
@@ -1334,7 +1378,7 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>2.48</v>
@@ -1375,9 +1419,11 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J26" t="n">
         <v>2.47</v>
       </c>
@@ -1414,9 +1460,11 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.49</v>
+      </c>
       <c r="J27" t="n">
         <v>2.47</v>
       </c>
@@ -1453,9 +1501,11 @@
         <v>317250.1890053062</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.49</v>
+      </c>
       <c r="J28" t="n">
         <v>2.47</v>
       </c>
@@ -1492,9 +1542,11 @@
         <v>351184.1890053062</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J29" t="n">
         <v>2.47</v>
       </c>
@@ -1531,9 +1583,11 @@
         <v>1388520.086705306</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.51</v>
+      </c>
       <c r="J30" t="n">
         <v>2.47</v>
       </c>
@@ -2155,7 +2209,7 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2311,7 +2365,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
@@ -2389,7 +2443,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
@@ -2701,7 +2755,7 @@
         <v>3671057.060305308</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -3364,7 +3418,7 @@
         <v>5157694.775605307</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -3372,13 +3426,15 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>1.08002024291498</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.008097165991903</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3403,17 +3459,11 @@
         <v>5085776.775605307</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +3495,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3484,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3520,17 +3558,11 @@
         <v>5256056.147305307</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3559,17 +3591,11 @@
         <v>5359281.775605307</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3598,17 +3624,11 @@
         <v>5686833.775605307</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3637,17 +3657,11 @@
         <v>5693993.775605307</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3676,17 +3690,11 @@
         <v>5686989.775605307</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3715,17 +3723,11 @@
         <v>5687257.775605307</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3754,17 +3756,11 @@
         <v>5820097.775605307</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3793,17 +3789,11 @@
         <v>5820097.775605307</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3832,23 +3822,15 @@
         <v>5974897.775605307</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.088117408906883</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.008097165991903</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3873,7 +3855,7 @@
         <v>5909531.215205307</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3906,7 +3888,7 @@
         <v>5812685.563705307</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3939,7 +3921,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3972,7 +3954,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4005,7 +3987,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4038,7 +4020,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4071,7 +4053,7 @@
         <v>3964293.563705307</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4104,7 +4086,7 @@
         <v>4331898.694805307</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4137,7 +4119,7 @@
         <v>4232586.302805307</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4203,7 +4185,7 @@
         <v>4626832.166505307</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4269,7 +4251,7 @@
         <v>4754511.876805307</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4302,7 +4284,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4335,7 +4317,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4368,7 +4350,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4401,7 +4383,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4434,7 +4416,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4467,7 +4449,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4500,7 +4482,7 @@
         <v>5260057.931505308</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4533,7 +4515,7 @@
         <v>5147730.524305307</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4566,7 +4548,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4599,7 +4581,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4632,7 +4614,7 @@
         <v>4269884.370805307</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4665,7 +4647,7 @@
         <v>4272044.758005307</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4698,7 +4680,7 @@
         <v>4346948.267005307</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4731,7 +4713,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4764,7 +4746,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4797,7 +4779,7 @@
         <v>1485147.837805307</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4830,7 +4812,7 @@
         <v>1487607.020905307</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4863,7 +4845,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4896,7 +4878,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4929,7 +4911,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4962,7 +4944,7 @@
         <v>1230197.020905307</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4995,7 +4977,7 @@
         <v>1230197.020905307</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5028,7 +5010,7 @@
         <v>1229812.405505307</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5061,7 +5043,7 @@
         <v>1230012.405505307</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5094,7 +5076,7 @@
         <v>1229296.405505307</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5127,7 +5109,7 @@
         <v>1229296.405505307</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5160,7 +5142,7 @@
         <v>578854.126205307</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5193,7 +5175,7 @@
         <v>578649.743305307</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5226,7 +5208,7 @@
         <v>399245.902705307</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5259,7 +5241,7 @@
         <v>399578.902705307</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5292,7 +5274,7 @@
         <v>347778.700805307</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6293,6 +6275,6 @@
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -722,11 +722,9 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>2.47</v>
       </c>
@@ -763,11 +761,9 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>2.47</v>
       </c>
@@ -845,11 +841,9 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>2.47</v>
       </c>
@@ -886,11 +880,9 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>2.47</v>
       </c>
@@ -927,11 +919,9 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>2.47</v>
       </c>
@@ -968,11 +958,9 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>2.47</v>
       </c>
@@ -1009,11 +997,9 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>2.47</v>
       </c>
@@ -1050,11 +1036,9 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>2.47</v>
       </c>
@@ -1173,11 +1157,9 @@
         <v>-14398.12549469377</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>2.47</v>
       </c>
@@ -3145,7 +3127,7 @@
         <v>4296180.426205307</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3153,11 +3135,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>1.047631578947368</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3184,17 +3166,11 @@
         <v>4407953.320005307</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3223,17 +3199,11 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3262,17 +3232,11 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3304,14 +3268,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +3301,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3382,14 +3334,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3418,23 +3364,15 @@
         <v>5157694.775605307</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>1.08002024291498</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.008097165991903</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3459,7 +3397,7 @@
         <v>5085776.775605307</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3558,7 +3496,7 @@
         <v>5256056.147305307</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3591,7 +3529,7 @@
         <v>5359281.775605307</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3624,7 +3562,7 @@
         <v>5686833.775605307</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3657,7 +3595,7 @@
         <v>5693993.775605307</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3690,7 +3628,7 @@
         <v>5686989.775605307</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3723,7 +3661,7 @@
         <v>5687257.775605307</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3756,7 +3694,7 @@
         <v>5820097.775605307</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3789,7 +3727,7 @@
         <v>5820097.775605307</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3822,7 +3760,7 @@
         <v>5974897.775605307</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3855,7 +3793,7 @@
         <v>5909531.215205307</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3888,7 +3826,7 @@
         <v>5812685.563705307</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3921,7 +3859,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3954,7 +3892,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3987,7 +3925,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4020,7 +3958,7 @@
         <v>5805162.563705307</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4053,7 +3991,7 @@
         <v>3964293.563705307</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4086,7 +4024,7 @@
         <v>4331898.694805307</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4119,7 +4057,7 @@
         <v>4232586.302805307</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4185,7 +4123,7 @@
         <v>4626832.166505307</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4251,7 +4189,7 @@
         <v>4754511.876805307</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4284,7 +4222,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4317,7 +4255,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4350,7 +4288,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4383,7 +4321,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4416,7 +4354,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4449,7 +4387,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4482,7 +4420,7 @@
         <v>5260057.931505308</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4515,7 +4453,7 @@
         <v>5147730.524305307</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4548,7 +4486,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4581,7 +4519,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4614,7 +4552,7 @@
         <v>4269884.370805307</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4647,7 +4585,7 @@
         <v>4272044.758005307</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4680,7 +4618,7 @@
         <v>4346948.267005307</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4713,7 +4651,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4746,7 +4684,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4779,7 +4717,7 @@
         <v>1485147.837805307</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4812,7 +4750,7 @@
         <v>1487607.020905307</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4845,7 +4783,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4878,7 +4816,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4911,7 +4849,7 @@
         <v>1344090.020905307</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4944,7 +4882,7 @@
         <v>1230197.020905307</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4977,7 +4915,7 @@
         <v>1230197.020905307</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5010,7 +4948,7 @@
         <v>1229812.405505307</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5043,7 +4981,7 @@
         <v>1230012.405505307</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5076,7 +5014,7 @@
         <v>1229296.405505307</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5109,7 +5047,7 @@
         <v>1229296.405505307</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5142,7 +5080,7 @@
         <v>578854.126205307</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5175,7 +5113,7 @@
         <v>578649.743305307</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5208,7 +5146,7 @@
         <v>399245.902705307</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5241,7 +5179,7 @@
         <v>399578.902705307</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5274,7 +5212,7 @@
         <v>347778.700805307</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6275,6 +6213,6 @@
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -722,9 +722,11 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J9" t="n">
         <v>2.47</v>
       </c>
@@ -761,9 +763,11 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.49</v>
+      </c>
       <c r="J10" t="n">
         <v>2.47</v>
       </c>
@@ -841,9 +845,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J12" t="n">
         <v>2.47</v>
       </c>
@@ -880,9 +886,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J13" t="n">
         <v>2.47</v>
       </c>
@@ -919,9 +927,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J14" t="n">
         <v>2.47</v>
       </c>
@@ -958,9 +968,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J15" t="n">
         <v>2.47</v>
       </c>
@@ -997,9 +1009,11 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J16" t="n">
         <v>2.47</v>
       </c>
@@ -1036,9 +1050,11 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.48</v>
+      </c>
       <c r="J17" t="n">
         <v>2.47</v>
       </c>
@@ -1237,11 +1253,9 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>2.47</v>
       </c>
@@ -1278,11 +1292,9 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>2.47</v>
       </c>
@@ -1319,11 +1331,9 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>2.47</v>
       </c>
@@ -1360,11 +1370,9 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>2.47</v>
       </c>
@@ -1401,11 +1409,9 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>2.47</v>
       </c>
@@ -1442,11 +1448,9 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>2.47</v>
       </c>
@@ -1483,11 +1487,9 @@
         <v>317250.1890053062</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>2.47</v>
       </c>
@@ -1524,11 +1526,9 @@
         <v>351184.1890053062</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>2.47</v>
       </c>
@@ -1565,11 +1565,9 @@
         <v>1388520.086705306</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>2.47</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>8901348.471305307</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -2121,13 +2119,15 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>1.096214574898785</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.008097165991903</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2152,17 +2152,11 @@
         <v>8865891.085505307</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2191,17 +2185,11 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2230,17 +2218,11 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2269,17 +2251,11 @@
         <v>9380360.130205307</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2308,17 +2284,11 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2347,17 +2317,11 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2350,11 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2425,17 +2383,11 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2467,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2449,11 @@
         <v>6928944.986905308</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2545,14 +2485,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2584,14 +2518,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2623,14 +2551,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2701,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2740,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2716,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2848,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3013,14 +2881,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3127,19 +2977,13 @@
         <v>4296180.426205307</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.047631578947368</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3166,7 +3010,7 @@
         <v>4407953.320005307</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3199,7 +3043,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3232,7 +3076,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4354,7 +4198,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4453,7 +4297,7 @@
         <v>5147730.524305307</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4486,7 +4330,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-20 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>65936.9207</v>
       </c>
       <c r="G2" t="n">
-        <v>34009.55510530622</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>32240.1169</v>
       </c>
       <c r="G3" t="n">
-        <v>1769.438205306222</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2.49</v>
       </c>
       <c r="I3" t="n">
         <v>2.49</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>19938.2131</v>
       </c>
       <c r="G4" t="n">
-        <v>1769.438205306222</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
       <c r="I4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J4" t="n">
         <v>2.49</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>49905.993</v>
       </c>
       <c r="G5" t="n">
-        <v>1769.438205306222</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
       <c r="I5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J5" t="n">
         <v>2.49</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>60722.6269</v>
       </c>
       <c r="G6" t="n">
-        <v>1769.438205306222</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
       <c r="I6" t="n">
         <v>2.47</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>99230</v>
       </c>
       <c r="G7" t="n">
-        <v>100999.4382053062</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
       <c r="I7" t="n">
         <v>2.47</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>17557</v>
       </c>
       <c r="G8" t="n">
-        <v>100999.4382053062</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,21 @@
         <v>56672</v>
       </c>
       <c r="G9" t="n">
-        <v>157671.4382053062</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +729,21 @@
         <v>11660</v>
       </c>
       <c r="G10" t="n">
-        <v>146011.4382053062</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +765,21 @@
         <v>67402.8881</v>
       </c>
       <c r="G11" t="n">
-        <v>213414.3263053062</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +801,21 @@
         <v>118339.4518</v>
       </c>
       <c r="G12" t="n">
-        <v>95074.87450530623</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +837,21 @@
         <v>114873.2555</v>
       </c>
       <c r="G13" t="n">
-        <v>95074.87450530623</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +873,23 @@
         <v>31126.258</v>
       </c>
       <c r="G14" t="n">
-        <v>95074.87450530623</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,26 +911,23 @@
         <v>486149.5054</v>
       </c>
       <c r="G15" t="n">
-        <v>95074.87450530623</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,26 +949,23 @@
         <v>30000</v>
       </c>
       <c r="G16" t="n">
-        <v>95074.87450530623</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,26 +987,21 @@
         <v>122907</v>
       </c>
       <c r="G17" t="n">
-        <v>-27832.12549469377</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>2.47</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,26 +1023,21 @@
         <v>46967.8071</v>
       </c>
       <c r="G18" t="n">
-        <v>-27832.12549469377</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>2.47</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1129,26 +1059,21 @@
         <v>20900</v>
       </c>
       <c r="G19" t="n">
-        <v>-6932.12549469377</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>2.47</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,24 +1095,21 @@
         <v>7466</v>
       </c>
       <c r="G20" t="n">
-        <v>-14398.12549469377</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,26 +1131,21 @@
         <v>254479.0013</v>
       </c>
       <c r="G21" t="n">
-        <v>240080.8758053062</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>2.47</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1250,24 +1167,21 @@
         <v>24308</v>
       </c>
       <c r="G22" t="n">
-        <v>240080.8758053062</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1289,24 +1203,23 @@
         <v>12810</v>
       </c>
       <c r="G23" t="n">
-        <v>240080.8758053062</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>2.48</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1328,24 +1241,23 @@
         <v>19278.3489</v>
       </c>
       <c r="G24" t="n">
-        <v>240080.8758053062</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>2.48</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1367,24 +1279,21 @@
         <v>195385.0401</v>
       </c>
       <c r="G25" t="n">
-        <v>240080.8758053062</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1406,24 +1315,21 @@
         <v>18429.3132</v>
       </c>
       <c r="G26" t="n">
-        <v>258510.1890053063</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1445,24 +1351,21 @@
         <v>44444.4009</v>
       </c>
       <c r="G27" t="n">
-        <v>258510.1890053063</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,24 +1387,21 @@
         <v>58740</v>
       </c>
       <c r="G28" t="n">
-        <v>317250.1890053062</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1523,24 +1423,21 @@
         <v>33934</v>
       </c>
       <c r="G29" t="n">
-        <v>351184.1890053062</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1562,24 +1459,21 @@
         <v>1037335.8977</v>
       </c>
       <c r="G30" t="n">
-        <v>1388520.086705306</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1601,24 +1495,21 @@
         <v>16224</v>
       </c>
       <c r="G31" t="n">
-        <v>1388520.086705306</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,24 +1531,21 @@
         <v>102488.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>1388520.086705306</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1679,24 +1567,21 @@
         <v>231526.3202</v>
       </c>
       <c r="G33" t="n">
-        <v>1620046.406905306</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1718,24 +1603,21 @@
         <v>418665.1082</v>
       </c>
       <c r="G34" t="n">
-        <v>2038711.515105306</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1757,24 +1639,21 @@
         <v>272222.0261</v>
       </c>
       <c r="G35" t="n">
-        <v>1766489.489005306</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1796,24 +1675,21 @@
         <v>9774</v>
       </c>
       <c r="G36" t="n">
-        <v>1766489.489005306</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1835,24 +1711,21 @@
         <v>1808883.2368</v>
       </c>
       <c r="G37" t="n">
-        <v>3575372.725805306</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1874,24 +1747,21 @@
         <v>2278505.6759</v>
       </c>
       <c r="G38" t="n">
-        <v>3575372.725805306</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1913,24 +1783,21 @@
         <v>214380.3238</v>
       </c>
       <c r="G39" t="n">
-        <v>3575372.725805306</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,24 +1819,21 @@
         <v>35243</v>
       </c>
       <c r="G40" t="n">
-        <v>3610615.725805306</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1991,24 +1855,21 @@
         <v>828745.9765</v>
       </c>
       <c r="G41" t="n">
-        <v>4439361.702305307</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2030,24 +1891,21 @@
         <v>2373453.5354</v>
       </c>
       <c r="G42" t="n">
-        <v>6812815.237705307</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2069,24 +1927,21 @@
         <v>1705340.9729</v>
       </c>
       <c r="G43" t="n">
-        <v>6812815.237705307</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2108,158 +1963,167 @@
         <v>2088533.2336</v>
       </c>
       <c r="G44" t="n">
-        <v>8901348.471305307</v>
-      </c>
-      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F45" t="n">
+        <v>35457.3858</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>701432.4857</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F47" t="n">
+        <v>144179.8816</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1215901.5304</v>
+      </c>
+      <c r="G48" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L44" t="n">
+      <c r="K48" t="n">
         <v>1.096214574898785</v>
       </c>
-      <c r="M44" t="n">
+      <c r="L48" t="n">
         <v>1.008097165991903</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F45" t="n">
-        <v>35457.3858</v>
-      </c>
-      <c r="G45" t="n">
-        <v>8865891.085505307</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F46" t="n">
-        <v>701432.4857</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8164458.599805307</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F47" t="n">
-        <v>144179.8816</v>
-      </c>
-      <c r="G47" t="n">
-        <v>8164458.599805307</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1215901.5304</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9380360.130205307</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,18 +2145,15 @@
         <v>2019151.6425</v>
       </c>
       <c r="G49" t="n">
-        <v>7361208.487705307</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,18 +2175,15 @@
         <v>2954859.3624</v>
       </c>
       <c r="G50" t="n">
-        <v>7361208.487705307</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2347,18 +2205,15 @@
         <v>633423.3605</v>
       </c>
       <c r="G51" t="n">
-        <v>7361208.487705307</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2380,18 +2235,15 @@
         <v>25091.2052</v>
       </c>
       <c r="G52" t="n">
-        <v>7361208.487705307</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2413,18 +2265,15 @@
         <v>432263.5008</v>
       </c>
       <c r="G53" t="n">
-        <v>6928944.986905308</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,18 +2295,15 @@
         <v>264458.3327</v>
       </c>
       <c r="G54" t="n">
-        <v>6928944.986905308</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2479,18 +2325,15 @@
         <v>383113.6927</v>
       </c>
       <c r="G55" t="n">
-        <v>6545831.294205308</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,18 +2355,15 @@
         <v>538818.6654000001</v>
       </c>
       <c r="G56" t="n">
-        <v>6545831.294205308</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2545,18 +2385,15 @@
         <v>60000</v>
       </c>
       <c r="G57" t="n">
-        <v>6605831.294205308</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2578,18 +2415,15 @@
         <v>2934774.2339</v>
       </c>
       <c r="G58" t="n">
-        <v>3671057.060305308</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2611,18 +2445,15 @@
         <v>68946.6029</v>
       </c>
       <c r="G59" t="n">
-        <v>3671057.060305308</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2644,18 +2475,15 @@
         <v>5250</v>
       </c>
       <c r="G60" t="n">
-        <v>3671057.060305308</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2677,18 +2505,15 @@
         <v>750</v>
       </c>
       <c r="G61" t="n">
-        <v>3671807.060305308</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2710,18 +2535,15 @@
         <v>218.3263</v>
       </c>
       <c r="G62" t="n">
-        <v>3671588.734005308</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2743,18 +2565,15 @@
         <v>76857.4822</v>
       </c>
       <c r="G63" t="n">
-        <v>3594731.251805308</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,18 +2595,15 @@
         <v>385228.9196</v>
       </c>
       <c r="G64" t="n">
-        <v>3979960.171405308</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2809,18 +2625,15 @@
         <v>331892.5663</v>
       </c>
       <c r="G65" t="n">
-        <v>4311852.737705308</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2842,18 +2655,15 @@
         <v>79939.61199999999</v>
       </c>
       <c r="G66" t="n">
-        <v>4231913.125705308</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2875,18 +2685,15 @@
         <v>225466.3122</v>
       </c>
       <c r="G67" t="n">
-        <v>4457379.437905308</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,18 +2715,15 @@
         <v>163591.0739</v>
       </c>
       <c r="G68" t="n">
-        <v>4293788.364005308</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2941,18 +2745,15 @@
         <v>96166.079</v>
       </c>
       <c r="G69" t="n">
-        <v>4389954.443005308</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2974,18 +2775,15 @@
         <v>93774.0168</v>
       </c>
       <c r="G70" t="n">
-        <v>4296180.426205307</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3007,18 +2805,15 @@
         <v>111772.8938</v>
       </c>
       <c r="G71" t="n">
-        <v>4407953.320005307</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,18 +2835,15 @@
         <v>607367.6675</v>
       </c>
       <c r="G72" t="n">
-        <v>5015320.987505307</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3073,18 +2865,15 @@
         <v>488870.0319</v>
       </c>
       <c r="G73" t="n">
-        <v>5015320.987505307</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3106,18 +2895,15 @@
         <v>91100</v>
       </c>
       <c r="G74" t="n">
-        <v>4924220.987505307</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3139,18 +2925,15 @@
         <v>46400.2119</v>
       </c>
       <c r="G75" t="n">
-        <v>4877820.775605307</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,18 +2955,15 @@
         <v>32250</v>
       </c>
       <c r="G76" t="n">
-        <v>4910070.775605307</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3205,18 +2985,15 @@
         <v>247624</v>
       </c>
       <c r="G77" t="n">
-        <v>5157694.775605307</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3238,18 +3015,15 @@
         <v>71918</v>
       </c>
       <c r="G78" t="n">
-        <v>5085776.775605307</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3271,18 +3045,15 @@
         <v>70036</v>
       </c>
       <c r="G79" t="n">
-        <v>5155812.775605307</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,18 +3075,15 @@
         <v>178788</v>
       </c>
       <c r="G80" t="n">
-        <v>5334600.775605307</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3337,18 +3105,15 @@
         <v>78544.6283</v>
       </c>
       <c r="G81" t="n">
-        <v>5256056.147305307</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3370,18 +3135,15 @@
         <v>103225.6283</v>
       </c>
       <c r="G82" t="n">
-        <v>5359281.775605307</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3403,18 +3165,15 @@
         <v>327552</v>
       </c>
       <c r="G83" t="n">
-        <v>5686833.775605307</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3436,18 +3195,15 @@
         <v>7160</v>
       </c>
       <c r="G84" t="n">
-        <v>5693993.775605307</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3469,18 +3225,15 @@
         <v>7004</v>
       </c>
       <c r="G85" t="n">
-        <v>5686989.775605307</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,18 +3255,15 @@
         <v>268</v>
       </c>
       <c r="G86" t="n">
-        <v>5687257.775605307</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3535,18 +3285,15 @@
         <v>132840</v>
       </c>
       <c r="G87" t="n">
-        <v>5820097.775605307</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3568,18 +3315,15 @@
         <v>80000</v>
       </c>
       <c r="G88" t="n">
-        <v>5820097.775605307</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3601,18 +3345,15 @@
         <v>154800</v>
       </c>
       <c r="G89" t="n">
-        <v>5974897.775605307</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3634,18 +3375,15 @@
         <v>65366.5604</v>
       </c>
       <c r="G90" t="n">
-        <v>5909531.215205307</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,18 +3405,15 @@
         <v>96845.65150000001</v>
       </c>
       <c r="G91" t="n">
-        <v>5812685.563705307</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,18 +3435,15 @@
         <v>7523</v>
       </c>
       <c r="G92" t="n">
-        <v>5805162.563705307</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,18 +3465,15 @@
         <v>14810</v>
       </c>
       <c r="G93" t="n">
-        <v>5805162.563705307</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3766,18 +3495,15 @@
         <v>26467.6087</v>
       </c>
       <c r="G94" t="n">
-        <v>5805162.563705307</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,18 +3525,15 @@
         <v>136786</v>
       </c>
       <c r="G95" t="n">
-        <v>5805162.563705307</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3832,18 +3555,15 @@
         <v>1840869</v>
       </c>
       <c r="G96" t="n">
-        <v>3964293.563705307</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3865,18 +3585,15 @@
         <v>367605.1311</v>
       </c>
       <c r="G97" t="n">
-        <v>4331898.694805307</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3898,18 +3615,15 @@
         <v>99312.39200000001</v>
       </c>
       <c r="G98" t="n">
-        <v>4232586.302805307</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3931,18 +3645,15 @@
         <v>386683.8637</v>
       </c>
       <c r="G99" t="n">
-        <v>4619270.166505307</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3964,18 +3675,15 @@
         <v>7562</v>
       </c>
       <c r="G100" t="n">
-        <v>4626832.166505307</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3997,18 +3705,15 @@
         <v>89719.71030000001</v>
       </c>
       <c r="G101" t="n">
-        <v>4716551.876805307</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4030,18 +3735,15 @@
         <v>37960</v>
       </c>
       <c r="G102" t="n">
-        <v>4754511.876805307</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4063,18 +3765,15 @@
         <v>3996.831</v>
       </c>
       <c r="G103" t="n">
-        <v>4758508.707805308</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4096,18 +3795,15 @@
         <v>48578</v>
       </c>
       <c r="G104" t="n">
-        <v>4758508.707805308</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,18 +3825,15 @@
         <v>51422</v>
       </c>
       <c r="G105" t="n">
-        <v>4758508.707805308</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4162,18 +3855,15 @@
         <v>15904.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>4742603.707905307</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,18 +3885,15 @@
         <v>23075.0001</v>
       </c>
       <c r="G107" t="n">
-        <v>4742603.707905307</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4228,18 +3915,15 @@
         <v>18980</v>
       </c>
       <c r="G108" t="n">
-        <v>4742603.707905307</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4261,18 +3945,15 @@
         <v>517454.2236</v>
       </c>
       <c r="G109" t="n">
-        <v>5260057.931505308</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4294,18 +3975,15 @@
         <v>112327.4072</v>
       </c>
       <c r="G110" t="n">
-        <v>5147730.524305307</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4327,18 +4005,15 @@
         <v>668722.5672</v>
       </c>
       <c r="G111" t="n">
-        <v>4479007.957105307</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4360,18 +4035,15 @@
         <v>19072.5758</v>
       </c>
       <c r="G112" t="n">
-        <v>4479007.957105307</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4393,18 +4065,15 @@
         <v>209123.5863</v>
       </c>
       <c r="G113" t="n">
-        <v>4269884.370805307</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4426,18 +4095,15 @@
         <v>2160.3872</v>
       </c>
       <c r="G114" t="n">
-        <v>4272044.758005307</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4459,18 +4125,15 @@
         <v>74903.50900000001</v>
       </c>
       <c r="G115" t="n">
-        <v>4346948.267005307</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4492,18 +4155,15 @@
         <v>84032.57030000001</v>
       </c>
       <c r="G116" t="n">
-        <v>4262915.696705307</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4525,18 +4185,15 @@
         <v>10586.7021</v>
       </c>
       <c r="G117" t="n">
-        <v>4262915.696705307</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4558,18 +4215,15 @@
         <v>2777767.8589</v>
       </c>
       <c r="G118" t="n">
-        <v>1485147.837805307</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4591,18 +4245,15 @@
         <v>2459.1831</v>
       </c>
       <c r="G119" t="n">
-        <v>1487607.020905307</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4624,18 +4275,15 @@
         <v>143517</v>
       </c>
       <c r="G120" t="n">
-        <v>1344090.020905307</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4657,18 +4305,15 @@
         <v>150000</v>
       </c>
       <c r="G121" t="n">
-        <v>1344090.020905307</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4690,18 +4335,15 @@
         <v>126956.8917</v>
       </c>
       <c r="G122" t="n">
-        <v>1344090.020905307</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4723,18 +4365,15 @@
         <v>113893</v>
       </c>
       <c r="G123" t="n">
-        <v>1230197.020905307</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4756,18 +4395,15 @@
         <v>587032.153</v>
       </c>
       <c r="G124" t="n">
-        <v>1230197.020905307</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4789,18 +4425,15 @@
         <v>384.6154</v>
       </c>
       <c r="G125" t="n">
-        <v>1229812.405505307</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4822,18 +4455,15 @@
         <v>200</v>
       </c>
       <c r="G126" t="n">
-        <v>1230012.405505307</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4855,18 +4485,15 @@
         <v>716</v>
       </c>
       <c r="G127" t="n">
-        <v>1229296.405505307</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4888,18 +4515,15 @@
         <v>5169.7676</v>
       </c>
       <c r="G128" t="n">
-        <v>1229296.405505307</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4921,18 +4545,15 @@
         <v>650442.2793000001</v>
       </c>
       <c r="G129" t="n">
-        <v>578854.126205307</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4954,18 +4575,15 @@
         <v>204.3829</v>
       </c>
       <c r="G130" t="n">
-        <v>578649.743305307</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4987,18 +4605,15 @@
         <v>179403.8406</v>
       </c>
       <c r="G131" t="n">
-        <v>399245.902705307</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5020,18 +4635,15 @@
         <v>333</v>
       </c>
       <c r="G132" t="n">
-        <v>399578.902705307</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5053,18 +4665,15 @@
         <v>51800.2019</v>
       </c>
       <c r="G133" t="n">
-        <v>347778.700805307</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5086,18 +4695,15 @@
         <v>20000</v>
       </c>
       <c r="G134" t="n">
-        <v>367778.700805307</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5119,18 +4725,15 @@
         <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>366778.700805307</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5152,18 +4755,15 @@
         <v>79338.3214</v>
       </c>
       <c r="G136" t="n">
-        <v>287440.379405307</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5185,18 +4785,15 @@
         <v>13370</v>
       </c>
       <c r="G137" t="n">
-        <v>287440.379405307</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5218,18 +4815,15 @@
         <v>18759.6901</v>
       </c>
       <c r="G138" t="n">
-        <v>306200.069505307</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5251,18 +4845,15 @@
         <v>20000</v>
       </c>
       <c r="G139" t="n">
-        <v>306200.069505307</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5284,18 +4875,15 @@
         <v>562279.7679</v>
       </c>
       <c r="G140" t="n">
-        <v>-256079.698394693</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5317,18 +4905,15 @@
         <v>18156.0528</v>
       </c>
       <c r="G141" t="n">
-        <v>-237923.645594693</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5350,18 +4935,15 @@
         <v>12297.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>-250221.645494693</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5383,18 +4965,15 @@
         <v>69152.83590000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-250221.645494693</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5416,18 +4995,15 @@
         <v>20000</v>
       </c>
       <c r="G144" t="n">
-        <v>-230221.645494693</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5449,18 +5025,15 @@
         <v>291682.1787</v>
       </c>
       <c r="G145" t="n">
-        <v>-521903.8241946929</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5482,18 +5055,15 @@
         <v>194</v>
       </c>
       <c r="G146" t="n">
-        <v>-521709.8241946929</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5515,18 +5085,15 @@
         <v>36052.9982</v>
       </c>
       <c r="G147" t="n">
-        <v>-557762.8223946929</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5548,18 +5115,15 @@
         <v>193</v>
       </c>
       <c r="G148" t="n">
-        <v>-557569.8223946929</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5581,18 +5145,15 @@
         <v>18646.3913</v>
       </c>
       <c r="G149" t="n">
-        <v>-576216.2136946929</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5614,18 +5175,15 @@
         <v>18640</v>
       </c>
       <c r="G150" t="n">
-        <v>-557576.2136946929</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5647,18 +5205,15 @@
         <v>36052.998</v>
       </c>
       <c r="G151" t="n">
-        <v>-593629.211694693</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5680,18 +5235,15 @@
         <v>26875.1579</v>
       </c>
       <c r="G152" t="n">
-        <v>-566754.053794693</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5713,18 +5265,15 @@
         <v>226367.269</v>
       </c>
       <c r="G153" t="n">
-        <v>-793121.3227946929</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5746,18 +5295,15 @@
         <v>46140</v>
       </c>
       <c r="G154" t="n">
-        <v>-746981.3227946929</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5779,18 +5325,15 @@
         <v>72269.7882</v>
       </c>
       <c r="G155" t="n">
-        <v>-746981.3227946929</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5812,18 +5355,15 @@
         <v>279823.9369</v>
       </c>
       <c r="G156" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5845,18 +5385,15 @@
         <v>191160.187</v>
       </c>
       <c r="G157" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5878,18 +5415,15 @@
         <v>167485.482</v>
       </c>
       <c r="G158" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5911,18 +5445,15 @@
         <v>53940.1763</v>
       </c>
       <c r="G159" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5944,18 +5475,15 @@
         <v>160348.5079</v>
       </c>
       <c r="G160" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5977,18 +5505,15 @@
         <v>38910.5058</v>
       </c>
       <c r="G161" t="n">
-        <v>-467157.385894693</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6010,18 +5535,15 @@
         <v>246.7165</v>
       </c>
       <c r="G162" t="n">
-        <v>-466910.669394693</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6043,18 +5565,15 @@
         <v>77380.7722007722</v>
       </c>
       <c r="G163" t="n">
-        <v>-389529.8971939208</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
